--- a/data/sam/SAMshares_GEO.xlsx
+++ b/data/sam/SAMshares_GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\geo-ccdr24\data\sam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DCCAE8-C631-4640-8F35-80265B2C3888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726E2950-4E1C-4D1F-8D1A-7B586D75E860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAM_temporary 2022" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="559">
   <si>
     <t>Activities</t>
   </si>
@@ -1417,9 +1417,6 @@
     <t>Rev2_correspondence</t>
   </si>
   <si>
-    <t>Percent</t>
-  </si>
-  <si>
     <t>Wages</t>
   </si>
   <si>
@@ -1721,6 +1718,9 @@
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>Processing code</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1733,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1784,6 +1784,14 @@
     <font>
       <sz val="11"/>
       <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2328,11 +2336,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2414,6 +2423,23 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2471,6 +2497,21 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2492,42 +2533,12 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -14589,7 +14600,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -17951,9 +17962,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:CM41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D44" sqref="D44"/>
+      <selection pane="topRight" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18072,105 +18083,105 @@
     </row>
     <row r="4" spans="1:91" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
-      <c r="C4" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52"/>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="52"/>
-      <c r="AN4" s="51" t="s">
+      <c r="C4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="67"/>
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="67"/>
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="67"/>
+      <c r="AL4" s="67"/>
+      <c r="AM4" s="67"/>
+      <c r="AN4" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="AO4" s="52"/>
-      <c r="AP4" s="52"/>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="52"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="52"/>
-      <c r="BG4" s="52"/>
-      <c r="BH4" s="52"/>
-      <c r="BI4" s="52"/>
-      <c r="BJ4" s="52"/>
-      <c r="BK4" s="52"/>
-      <c r="BL4" s="52"/>
-      <c r="BM4" s="52"/>
-      <c r="BN4" s="52"/>
-      <c r="BO4" s="52"/>
-      <c r="BP4" s="52"/>
-      <c r="BQ4" s="52"/>
-      <c r="BR4" s="52"/>
-      <c r="BS4" s="52"/>
-      <c r="BT4" s="52"/>
-      <c r="BU4" s="52"/>
-      <c r="BV4" s="52"/>
-      <c r="BW4" s="52"/>
-      <c r="BX4" s="52"/>
-      <c r="BY4" s="51" t="s">
+      <c r="AO4" s="67"/>
+      <c r="AP4" s="67"/>
+      <c r="AQ4" s="67"/>
+      <c r="AR4" s="67"/>
+      <c r="AS4" s="67"/>
+      <c r="AT4" s="67"/>
+      <c r="AU4" s="67"/>
+      <c r="AV4" s="67"/>
+      <c r="AW4" s="67"/>
+      <c r="AX4" s="67"/>
+      <c r="AY4" s="67"/>
+      <c r="AZ4" s="67"/>
+      <c r="BA4" s="67"/>
+      <c r="BB4" s="67"/>
+      <c r="BC4" s="67"/>
+      <c r="BD4" s="67"/>
+      <c r="BE4" s="67"/>
+      <c r="BF4" s="67"/>
+      <c r="BG4" s="67"/>
+      <c r="BH4" s="67"/>
+      <c r="BI4" s="67"/>
+      <c r="BJ4" s="67"/>
+      <c r="BK4" s="67"/>
+      <c r="BL4" s="67"/>
+      <c r="BM4" s="67"/>
+      <c r="BN4" s="67"/>
+      <c r="BO4" s="67"/>
+      <c r="BP4" s="67"/>
+      <c r="BQ4" s="67"/>
+      <c r="BR4" s="67"/>
+      <c r="BS4" s="67"/>
+      <c r="BT4" s="67"/>
+      <c r="BU4" s="67"/>
+      <c r="BV4" s="67"/>
+      <c r="BW4" s="67"/>
+      <c r="BX4" s="67"/>
+      <c r="BY4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="BZ4" s="53"/>
-      <c r="CA4" s="46" t="s">
+      <c r="BZ4" s="68"/>
+      <c r="CA4" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="CB4" s="47"/>
-      <c r="CC4" s="47"/>
-      <c r="CD4" s="47"/>
-      <c r="CE4" s="48"/>
-      <c r="CF4" s="54" t="s">
+      <c r="CB4" s="62"/>
+      <c r="CC4" s="62"/>
+      <c r="CD4" s="62"/>
+      <c r="CE4" s="63"/>
+      <c r="CF4" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="CG4" s="54"/>
-      <c r="CH4" s="54"/>
-      <c r="CI4" s="43" t="s">
+      <c r="CG4" s="69"/>
+      <c r="CH4" s="69"/>
+      <c r="CI4" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="CJ4" s="44"/>
-      <c r="CK4" s="45"/>
+      <c r="CJ4" s="59"/>
+      <c r="CK4" s="60"/>
       <c r="CL4" s="8" t="s">
         <v>128</v>
       </c>
@@ -18450,7 +18461,7 @@
       </c>
     </row>
     <row r="6" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="64" t="s">
         <v>40</v>
       </c>
       <c r="B6" t="s">
@@ -18799,7 +18810,7 @@
       </c>
     </row>
     <row r="7" spans="1:91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="65"/>
       <c r="B7" t="s">
         <v>116</v>
       </c>
@@ -19158,7 +19169,7 @@
         <v>227</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -20595,134 +20606,134 @@
     </row>
     <row r="25" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="C27" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="D27" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="E27" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="F27" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="G27" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="H27" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="I27" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="J27" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="K27" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="L27" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="L27" s="20" t="s">
+      <c r="M27" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="M27" s="20" t="s">
+      <c r="N27" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="N27" s="20" t="s">
+      <c r="O27" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="O27" s="20" t="s">
+      <c r="P27" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="P27" s="20" t="s">
+      <c r="Q27" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="Q27" s="20" t="s">
+      <c r="R27" s="20" t="s">
         <v>507</v>
       </c>
-      <c r="R27" s="20" t="s">
+      <c r="S27" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="S27" s="20" t="s">
+      <c r="T27" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="T27" s="20" t="s">
+      <c r="U27" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="U27" s="20" t="s">
+      <c r="V27" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="V27" s="20" t="s">
+      <c r="W27" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="W27" s="20" t="s">
+      <c r="X27" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="X27" s="20" t="s">
+      <c r="Y27" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="Y27" s="20" t="s">
+      <c r="Z27" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="Z27" s="20" t="s">
+      <c r="AA27" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="AA27" s="20" t="s">
+      <c r="AB27" s="20" t="s">
         <v>517</v>
       </c>
-      <c r="AB27" s="20" t="s">
+      <c r="AC27" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="AC27" s="20" t="s">
+      <c r="AD27" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="AD27" s="20" t="s">
+      <c r="AE27" s="20" t="s">
         <v>520</v>
       </c>
-      <c r="AE27" s="20" t="s">
+      <c r="AF27" s="20" t="s">
         <v>521</v>
       </c>
-      <c r="AF27" s="20" t="s">
+      <c r="AG27" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AG27" s="20" t="s">
+      <c r="AH27" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="AH27" s="20" t="s">
+      <c r="AI27" s="20" t="s">
         <v>524</v>
       </c>
-      <c r="AI27" s="20" t="s">
+      <c r="AJ27" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="AJ27" s="20" t="s">
+      <c r="AK27" s="20" t="s">
         <v>526</v>
       </c>
-      <c r="AK27" s="20" t="s">
+      <c r="AL27" s="20" t="s">
         <v>527</v>
       </c>
-      <c r="AL27" s="20" t="s">
+      <c r="AM27" s="20" t="s">
         <v>528</v>
-      </c>
-      <c r="AM27" s="20" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="28" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>530</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>531</v>
       </c>
       <c r="C28" s="19">
         <v>3277666.2033081101</v>
@@ -20838,10 +20849,10 @@
     </row>
     <row r="29" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C29" s="19">
         <v>30258859.850082401</v>
@@ -20957,10 +20968,10 @@
     </row>
     <row r="30" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C30" s="19">
         <v>8979327.8221130408</v>
@@ -21076,10 +21087,10 @@
     </row>
     <row r="31" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C31" s="19">
         <v>11116017.8127289</v>
@@ -21195,10 +21206,10 @@
     </row>
     <row r="32" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C32" s="19">
         <v>95985269.854499802</v>
@@ -21314,10 +21325,10 @@
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C33" s="19">
         <v>43176973.227958702</v>
@@ -21478,124 +21489,124 @@
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C37" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="D37" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="E37" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="F37" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="G37" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="H37" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="H37" s="20" t="s">
+      <c r="I37" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="I37" s="20" t="s">
+      <c r="J37" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="J37" s="20" t="s">
+      <c r="K37" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="K37" s="20" t="s">
+      <c r="L37" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="L37" s="20" t="s">
+      <c r="M37" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="M37" s="20" t="s">
+      <c r="N37" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="N37" s="20" t="s">
+      <c r="O37" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="O37" s="20" t="s">
+      <c r="P37" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="P37" s="20" t="s">
+      <c r="Q37" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="Q37" s="20" t="s">
+      <c r="R37" s="20" t="s">
         <v>507</v>
       </c>
-      <c r="R37" s="20" t="s">
+      <c r="S37" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="S37" s="20" t="s">
+      <c r="T37" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="T37" s="20" t="s">
+      <c r="U37" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="U37" s="20" t="s">
+      <c r="V37" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="V37" s="20" t="s">
+      <c r="W37" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="W37" s="20" t="s">
+      <c r="X37" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="X37" s="20" t="s">
+      <c r="Y37" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="Y37" s="20" t="s">
+      <c r="Z37" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="Z37" s="20" t="s">
+      <c r="AA37" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="AA37" s="20" t="s">
+      <c r="AB37" s="20" t="s">
         <v>517</v>
       </c>
-      <c r="AB37" s="20" t="s">
+      <c r="AC37" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="AC37" s="20" t="s">
+      <c r="AD37" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="AD37" s="20" t="s">
+      <c r="AE37" s="20" t="s">
         <v>520</v>
       </c>
-      <c r="AE37" s="20" t="s">
+      <c r="AF37" s="20" t="s">
         <v>521</v>
       </c>
-      <c r="AF37" s="20" t="s">
+      <c r="AG37" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AG37" s="20" t="s">
+      <c r="AH37" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="AH37" s="20" t="s">
+      <c r="AI37" s="20" t="s">
         <v>524</v>
       </c>
-      <c r="AI37" s="20" t="s">
+      <c r="AJ37" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="AJ37" s="20" t="s">
+      <c r="AK37" s="20" t="s">
         <v>526</v>
       </c>
-      <c r="AK37" s="20" t="s">
+      <c r="AL37" s="20" t="s">
         <v>527</v>
       </c>
-      <c r="AL37" s="20" t="s">
+      <c r="AM37" s="20" t="s">
         <v>528</v>
-      </c>
-      <c r="AM37" s="20" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C38" s="20">
         <v>45047562.781448402</v>
@@ -21710,10 +21721,10 @@
       </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B40" s="3"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="89" t="s">
+        <v>558</v>
+      </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -21793,6 +21804,9 @@
     <mergeCell ref="BY4:BZ4"/>
     <mergeCell ref="CF4:CH4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B40" r:id="rId1" xr:uid="{437EDF4E-5B4B-4C13-B9F9-0184DE67AEFE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -21800,10 +21814,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:O31"/>
+  <dimension ref="A2:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21866,13 +21880,13 @@
         <v>22</v>
       </c>
       <c r="M5" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="N5" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="N5" s="20" t="s">
-        <v>469</v>
-      </c>
       <c r="O5" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21906,10 +21920,10 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="M6" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="N6" s="20" t="s">
         <v>478</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>479</v>
       </c>
       <c r="O6" s="22">
         <v>57510740.830154397</v>
@@ -21946,10 +21960,10 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
       <c r="M7" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N7" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O7" s="22">
         <v>77436982.557525605</v>
@@ -21986,10 +22000,10 @@
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="M8" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O8" s="22">
         <v>104578879.424477</v>
@@ -22026,10 +22040,10 @@
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="M9" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O9" s="22">
         <v>124723382.45765699</v>
@@ -22066,10 +22080,10 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="M10" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O10" s="22">
         <v>203923504.00672901</v>
@@ -22106,10 +22120,10 @@
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="M11" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O11" s="22">
         <v>91338333.884315506</v>
@@ -22146,10 +22160,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="M12" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N12" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O12" s="22">
         <v>172982395.871185</v>
@@ -22186,10 +22200,10 @@
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
       <c r="M13" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N13" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O13" s="22">
         <v>303575256.64318103</v>
@@ -22226,10 +22240,10 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
       <c r="M14" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N14" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O14" s="22">
         <v>397204824.52236199</v>
@@ -22266,10 +22280,10 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
       <c r="M15" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N15" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O15" s="22">
         <v>762309666.74930203</v>
@@ -22294,39 +22308,39 @@
       <c r="K17" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="D21" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="E21" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="F21" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="G21" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="H21" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="I21" s="20" t="s">
         <v>474</v>
       </c>
-      <c r="I21" s="20" t="s">
-        <v>475</v>
-      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>478</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>479</v>
       </c>
       <c r="D22" s="22">
         <v>7071448.8291778602</v>
@@ -22348,12 +22362,12 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D23" s="22">
         <v>3136840.3759765602</v>
@@ -22375,12 +22389,12 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D24" s="22">
         <v>3384630.59442139</v>
@@ -22402,12 +22416,12 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D25" s="22">
         <v>2903819.61181641</v>
@@ -22429,12 +22443,12 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D26" s="22">
         <v>3978436.93572998</v>
@@ -22456,12 +22470,12 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D27" s="22">
         <v>10106488.568038899</v>
@@ -22483,12 +22497,12 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D28" s="22">
         <v>14984586.892395001</v>
@@ -22510,12 +22524,12 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D29" s="22">
         <v>3875825.6626892099</v>
@@ -22537,12 +22551,12 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D30" s="22">
         <v>3120366.7671203599</v>
@@ -22564,12 +22578,12 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D31" s="22">
         <v>10523004.826812699</v>
@@ -22590,7 +22604,15 @@
         <v>1244785293.47909</v>
       </c>
     </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="89" t="s">
+        <v>558</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B33" r:id="rId1" xr:uid="{570A3F65-A408-4C7B-A2AB-9084FD1CE198}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -22598,10 +22620,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22620,48 +22642,48 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>474</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>478</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>479</v>
       </c>
       <c r="E2" s="20">
         <v>6570740.9831085196</v>
@@ -22684,16 +22706,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="C3" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>478</v>
-      </c>
       <c r="D3" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E3" s="20">
         <v>3136840.3759765602</v>
@@ -22716,16 +22738,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="C4" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>478</v>
-      </c>
       <c r="D4" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E4" s="20">
         <v>3384630.59442139</v>
@@ -22748,16 +22770,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="C5" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>478</v>
-      </c>
       <c r="D5" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E5" s="20">
         <v>2903819.61181641</v>
@@ -22780,16 +22802,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>478</v>
-      </c>
       <c r="D6" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E6" s="20">
         <v>3978436.93572998</v>
@@ -22812,16 +22834,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>477</v>
-      </c>
       <c r="C7" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E7" s="20">
         <v>10106488.568038899</v>
@@ -22844,16 +22866,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>477</v>
-      </c>
       <c r="C8" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E8" s="20">
         <v>14984586.892395001</v>
@@ -22876,16 +22898,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>477</v>
-      </c>
       <c r="C9" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E9" s="20">
         <v>3875825.6626892099</v>
@@ -22908,16 +22930,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>477</v>
-      </c>
       <c r="C10" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E10" s="20">
         <v>3120366.7671203599</v>
@@ -22940,16 +22962,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>477</v>
-      </c>
       <c r="C11" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E11" s="20">
         <v>10523004.826812699</v>
@@ -22972,16 +22994,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C12" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>478</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>479</v>
       </c>
       <c r="E12" s="20">
         <v>0</v>
@@ -23004,16 +23026,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E13" s="20">
         <v>0</v>
@@ -23036,16 +23058,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E14" s="20">
         <v>0</v>
@@ -23068,16 +23090,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E15" s="20">
         <v>0</v>
@@ -23100,16 +23122,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E16" s="20">
         <v>0</v>
@@ -23132,16 +23154,16 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E17" s="20">
         <v>0</v>
@@ -23164,16 +23186,16 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E18" s="20">
         <v>0</v>
@@ -23196,16 +23218,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E19" s="20">
         <v>0</v>
@@ -23228,16 +23250,16 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E20" s="20">
         <v>0</v>
@@ -23260,16 +23282,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E21" s="20">
         <v>0</v>
@@ -23292,16 +23314,16 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C22" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>478</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>479</v>
       </c>
       <c r="E22" s="20">
         <v>500707.846069336</v>
@@ -23324,16 +23346,16 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E23" s="20">
         <v>0</v>
@@ -23356,16 +23378,16 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E24" s="20">
         <v>0</v>
@@ -23388,16 +23410,16 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E25" s="20">
         <v>0</v>
@@ -23420,16 +23442,16 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E26" s="20">
         <v>0</v>
@@ -23452,16 +23474,16 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E27" s="20">
         <v>0</v>
@@ -23484,16 +23506,16 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E28" s="20">
         <v>0</v>
@@ -23516,16 +23538,16 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E29" s="20">
         <v>0</v>
@@ -23548,16 +23570,16 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E30" s="20">
         <v>0</v>
@@ -23580,16 +23602,16 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E31" s="20">
         <v>0</v>
@@ -23612,16 +23634,16 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="D32" s="20" t="s">
         <v>478</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>479</v>
       </c>
       <c r="E32" s="20">
         <v>0</v>
@@ -23644,16 +23666,16 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B33" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>478</v>
-      </c>
       <c r="D33" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E33" s="20">
         <v>0</v>
@@ -23676,16 +23698,16 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>478</v>
-      </c>
       <c r="D34" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E34" s="20">
         <v>0</v>
@@ -23708,16 +23730,16 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B35" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>478</v>
-      </c>
       <c r="D35" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E35" s="20">
         <v>0</v>
@@ -23740,16 +23762,16 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B36" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>478</v>
-      </c>
       <c r="D36" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E36" s="20">
         <v>0</v>
@@ -23772,16 +23794,16 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E37" s="20">
         <v>0</v>
@@ -23804,16 +23826,16 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E38" s="20">
         <v>0</v>
@@ -23836,16 +23858,16 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E39" s="20">
         <v>0</v>
@@ -23868,16 +23890,16 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E40" s="20">
         <v>0</v>
@@ -23900,16 +23922,16 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E41" s="20">
         <v>0</v>
@@ -23932,16 +23954,16 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C42" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="D42" s="20" t="s">
         <v>478</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>479</v>
       </c>
       <c r="E42" s="20">
         <v>0</v>
@@ -23964,16 +23986,16 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E43" s="20">
         <v>0</v>
@@ -23996,16 +24018,16 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E44" s="20">
         <v>0</v>
@@ -24028,16 +24050,16 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E45" s="20">
         <v>0</v>
@@ -24060,16 +24082,16 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E46" s="20">
         <v>0</v>
@@ -24092,16 +24114,16 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E47" s="20">
         <v>677846.47888183605</v>
@@ -24124,16 +24146,16 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E48" s="20">
         <v>0</v>
@@ -24156,16 +24178,16 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E49" s="20">
         <v>280356.33850097703</v>
@@ -24188,16 +24210,16 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E50" s="20">
         <v>0</v>
@@ -24220,16 +24242,16 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E51" s="20">
         <v>0</v>
@@ -24252,16 +24274,16 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C52" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="D52" s="20" t="s">
         <v>478</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>479</v>
       </c>
       <c r="E52" s="20">
         <v>2457716.0888671898</v>
@@ -24284,16 +24306,16 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E53" s="20">
         <v>0</v>
@@ -24316,16 +24338,16 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E54" s="20">
         <v>385159.88159179699</v>
@@ -24348,16 +24370,16 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E55" s="20">
         <v>0</v>
@@ -24380,16 +24402,16 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E56" s="20">
         <v>0</v>
@@ -24412,16 +24434,16 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E57" s="20">
         <v>2713697.13134766</v>
@@ -24444,16 +24466,16 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E58" s="20">
         <v>725633.15734863305</v>
@@ -24476,16 +24498,16 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E59" s="20">
         <v>665610.22033691395</v>
@@ -24508,16 +24530,16 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E60" s="20">
         <v>3856365.8523559598</v>
@@ -24540,16 +24562,16 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E61" s="20">
         <v>0</v>
@@ -24572,16 +24594,16 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="B62" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B62" s="20" t="s">
-        <v>488</v>
-      </c>
       <c r="C62" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="D62" s="20" t="s">
         <v>478</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>479</v>
       </c>
       <c r="E62" s="20">
         <v>0</v>
@@ -24604,16 +24626,16 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="B63" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B63" s="20" t="s">
-        <v>488</v>
-      </c>
       <c r="C63" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E63" s="20">
         <v>0</v>
@@ -24636,16 +24658,16 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="B64" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B64" s="20" t="s">
-        <v>488</v>
-      </c>
       <c r="C64" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E64" s="20">
         <v>0</v>
@@ -24668,16 +24690,16 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="B65" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B65" s="20" t="s">
-        <v>488</v>
-      </c>
       <c r="C65" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E65" s="20">
         <v>0</v>
@@ -24700,16 +24722,16 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="B66" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B66" s="20" t="s">
-        <v>488</v>
-      </c>
       <c r="C66" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E66" s="20">
         <v>0</v>
@@ -24732,16 +24754,16 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="B67" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B67" s="20" t="s">
-        <v>488</v>
-      </c>
       <c r="C67" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E67" s="20">
         <v>0</v>
@@ -24764,16 +24786,16 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="B68" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B68" s="20" t="s">
-        <v>488</v>
-      </c>
       <c r="C68" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E68" s="20">
         <v>0</v>
@@ -24796,16 +24818,16 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="B69" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B69" s="20" t="s">
-        <v>488</v>
-      </c>
       <c r="C69" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E69" s="20">
         <v>0</v>
@@ -24828,16 +24850,16 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="B70" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B70" s="20" t="s">
-        <v>488</v>
-      </c>
       <c r="C70" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E70" s="20">
         <v>0</v>
@@ -24860,16 +24882,16 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="B71" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="B71" s="20" t="s">
-        <v>488</v>
-      </c>
       <c r="C71" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E71" s="20">
         <v>0</v>
@@ -24892,16 +24914,16 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C72" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="D72" s="20" t="s">
         <v>478</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>479</v>
       </c>
       <c r="E72" s="20">
         <v>0</v>
@@ -24924,16 +24946,16 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E73" s="20">
         <v>0</v>
@@ -24956,16 +24978,16 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E74" s="20">
         <v>0</v>
@@ -24988,16 +25010,16 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E75" s="20">
         <v>0</v>
@@ -25020,16 +25042,16 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E76" s="20">
         <v>0</v>
@@ -25052,16 +25074,16 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E77" s="20">
         <v>0</v>
@@ -25084,16 +25106,16 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E78" s="20">
         <v>0</v>
@@ -25116,16 +25138,16 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E79" s="20">
         <v>0</v>
@@ -25148,16 +25170,16 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E80" s="20">
         <v>0</v>
@@ -25180,16 +25202,16 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E81" s="20">
         <v>0</v>
@@ -25210,7 +25232,15 @@
         <v>0</v>
       </c>
     </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="89" t="s">
+        <v>558</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A83" r:id="rId1" xr:uid="{13B28245-2264-4191-86CB-CBE21BED67F6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -25218,7 +25248,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B2:Q57"/>
+  <dimension ref="B2:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25232,7 +25262,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -25282,2658 +25312,2666 @@
         <v>180</v>
       </c>
       <c r="Q4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="78" t="str">
+      <c r="C5" s="47" t="str">
         <f>'SAM_temporary 2022'!B40</f>
         <v>c-agri</v>
       </c>
-      <c r="D5" s="87">
+      <c r="D5" s="56">
         <f>$P5*D$46/SUM($D$46:$M$46)</f>
         <v>99.163197911727906</v>
       </c>
-      <c r="E5" s="87">
+      <c r="E5" s="56">
         <f t="shared" ref="E5:M5" si="0">$P5*E$46/SUM($D$46:$M$46)</f>
         <v>132.66347927857549</v>
       </c>
-      <c r="F5" s="87">
+      <c r="F5" s="56">
         <f t="shared" si="0"/>
         <v>165.26206673694915</v>
       </c>
-      <c r="G5" s="87">
+      <c r="G5" s="56">
         <f t="shared" si="0"/>
         <v>201.8800088325988</v>
       </c>
-      <c r="H5" s="87">
+      <c r="H5" s="56">
         <f t="shared" si="0"/>
         <v>306.659994978692</v>
       </c>
-      <c r="I5" s="87">
+      <c r="I5" s="56">
         <f t="shared" si="0"/>
         <v>118.30686405583447</v>
       </c>
-      <c r="J5" s="87">
+      <c r="J5" s="56">
         <f t="shared" si="0"/>
         <v>233.38274886495364</v>
       </c>
-      <c r="K5" s="87">
+      <c r="K5" s="56">
         <f t="shared" si="0"/>
         <v>334.3864811320289</v>
       </c>
-      <c r="L5" s="87">
+      <c r="L5" s="56">
         <f t="shared" si="0"/>
         <v>432.24172543690207</v>
       </c>
-      <c r="M5" s="87">
+      <c r="M5" s="56">
         <f t="shared" si="0"/>
         <v>645.08533262751337</v>
       </c>
-      <c r="O5" s="77">
+      <c r="O5" s="46">
         <f>SUM(D5:M5)</f>
         <v>2669.0318998557755</v>
       </c>
-      <c r="P5" s="76">
+      <c r="P5" s="45">
         <f>SUM('SAM_temporary 2022'!CF40)</f>
         <v>2669.0318998557755</v>
       </c>
-      <c r="Q5" s="77">
+      <c r="Q5" s="46">
         <f>O5-P5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="55"/>
-      <c r="C6" s="86" t="str">
+      <c r="B6" s="70"/>
+      <c r="C6" s="55" t="str">
         <f>'SAM_temporary 2022'!B41</f>
         <v>c-mine</v>
       </c>
-      <c r="D6" s="87">
+      <c r="D6" s="56">
         <f>$P6*D$53/SUM($D$53:$M$53)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6" s="56">
         <f t="shared" ref="E6:M6" si="1">$P6*E$53/SUM($D$53:$M$53)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="87">
+      <c r="F6" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G6" s="87">
+      <c r="G6" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="87">
+      <c r="H6" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="87">
+      <c r="I6" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="87">
+      <c r="J6" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K6" s="87">
+      <c r="K6" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L6" s="87">
+      <c r="L6" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M6" s="87">
+      <c r="M6" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="77">
+      <c r="O6" s="46">
         <f t="shared" ref="O6:O41" si="2">SUM(D6:M6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="76">
+      <c r="P6" s="45">
         <f>SUM('SAM_temporary 2022'!CF41)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="77">
+      <c r="Q6" s="46">
         <f t="shared" ref="Q6:Q41" si="3">O6-P6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="55"/>
-      <c r="C7" s="78" t="str">
+      <c r="B7" s="70"/>
+      <c r="C7" s="47" t="str">
         <f>'SAM_temporary 2022'!B42</f>
         <v>c-food</v>
       </c>
-      <c r="D7" s="87">
+      <c r="D7" s="56">
         <f>$P7*D$46/SUM($D$46:$M$46)</f>
         <v>477.92776721081441</v>
       </c>
-      <c r="E7" s="87">
+      <c r="E7" s="56">
         <f t="shared" ref="E7:M7" si="4">$P7*E$46/SUM($D$46:$M$46)</f>
         <v>639.38599981888103</v>
       </c>
-      <c r="F7" s="87">
+      <c r="F7" s="56">
         <f t="shared" si="4"/>
         <v>796.49842102251773</v>
       </c>
-      <c r="G7" s="87">
+      <c r="G7" s="56">
         <f t="shared" si="4"/>
         <v>972.98255701425285</v>
       </c>
-      <c r="H7" s="87">
+      <c r="H7" s="56">
         <f t="shared" si="4"/>
         <v>1477.9810431639194</v>
       </c>
-      <c r="I7" s="87">
+      <c r="I7" s="56">
         <f t="shared" si="4"/>
         <v>570.19273858282008</v>
       </c>
-      <c r="J7" s="87">
+      <c r="J7" s="56">
         <f t="shared" si="4"/>
         <v>1124.8134229176349</v>
       </c>
-      <c r="K7" s="87">
+      <c r="K7" s="56">
         <f t="shared" si="4"/>
         <v>1611.6118447004105</v>
       </c>
-      <c r="L7" s="87">
+      <c r="L7" s="56">
         <f t="shared" si="4"/>
         <v>2083.2357879109554</v>
       </c>
-      <c r="M7" s="87">
+      <c r="M7" s="56">
         <f t="shared" si="4"/>
         <v>3109.0585940719266</v>
       </c>
-      <c r="O7" s="77">
+      <c r="O7" s="46">
         <f t="shared" si="2"/>
         <v>12863.688176414133</v>
       </c>
-      <c r="P7" s="76">
+      <c r="P7" s="45">
         <f>SUM('SAM_temporary 2022'!CF42)</f>
         <v>12863.688176414131</v>
       </c>
-      <c r="Q7" s="77">
+      <c r="Q7" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="55"/>
-      <c r="C8" s="79" t="str">
+      <c r="B8" s="70"/>
+      <c r="C8" s="48" t="str">
         <f>'SAM_temporary 2022'!B43</f>
         <v>c-text</v>
       </c>
-      <c r="D8" s="87">
+      <c r="D8" s="56">
         <f>$P8*D$47/SUM($D$47:$M$47)</f>
         <v>53.167970919258444</v>
       </c>
-      <c r="E8" s="87">
+      <c r="E8" s="56">
         <f t="shared" ref="E8:M8" si="5">$P8*E$47/SUM($D$47:$M$47)</f>
         <v>97.538832677170987</v>
       </c>
-      <c r="F8" s="87">
+      <c r="F8" s="56">
         <f t="shared" si="5"/>
         <v>114.79964326157133</v>
       </c>
-      <c r="G8" s="87">
+      <c r="G8" s="56">
         <f t="shared" si="5"/>
         <v>135.16389941938149</v>
       </c>
-      <c r="H8" s="87">
+      <c r="H8" s="56">
         <f t="shared" si="5"/>
         <v>184.05751985159796</v>
       </c>
-      <c r="I8" s="87">
+      <c r="I8" s="56">
         <f t="shared" si="5"/>
         <v>67.941995428861716</v>
       </c>
-      <c r="J8" s="87">
+      <c r="J8" s="56">
         <f t="shared" si="5"/>
         <v>152.25798266253628</v>
       </c>
-      <c r="K8" s="87">
+      <c r="K8" s="56">
         <f t="shared" si="5"/>
         <v>248.45103059305734</v>
       </c>
-      <c r="L8" s="87">
+      <c r="L8" s="56">
         <f t="shared" si="5"/>
         <v>310.16709183632042</v>
       </c>
-      <c r="M8" s="87">
+      <c r="M8" s="56">
         <f t="shared" si="5"/>
         <v>544.84355213402739</v>
       </c>
-      <c r="O8" s="77">
+      <c r="O8" s="46">
         <f t="shared" si="2"/>
         <v>1908.3895187837834</v>
       </c>
-      <c r="P8" s="76">
+      <c r="P8" s="45">
         <f>SUM('SAM_temporary 2022'!CF43)</f>
         <v>1908.3895187837834</v>
       </c>
-      <c r="Q8" s="77">
+      <c r="Q8" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="55"/>
-      <c r="C9" s="80" t="str">
+      <c r="B9" s="70"/>
+      <c r="C9" s="49" t="str">
         <f>'SAM_temporary 2022'!B44</f>
         <v>c-ppp</v>
       </c>
-      <c r="D9" s="87">
+      <c r="D9" s="56">
         <f t="shared" ref="D9:M18" si="6">$P9*D$48/SUM($D$48:$M$48)</f>
         <v>7.8448465098132161</v>
       </c>
-      <c r="E9" s="87">
+      <c r="E9" s="56">
         <f t="shared" si="6"/>
         <v>17.909710063675536</v>
       </c>
-      <c r="F9" s="87">
+      <c r="F9" s="56">
         <f t="shared" si="6"/>
         <v>22.274305413696073</v>
       </c>
-      <c r="G9" s="87">
+      <c r="G9" s="56">
         <f t="shared" si="6"/>
         <v>32.976844645331482</v>
       </c>
-      <c r="H9" s="87">
+      <c r="H9" s="56">
         <f t="shared" si="6"/>
         <v>71.202150412822306</v>
       </c>
-      <c r="I9" s="87">
+      <c r="I9" s="56">
         <f t="shared" si="6"/>
         <v>13.332430929712011</v>
       </c>
-      <c r="J9" s="87">
+      <c r="J9" s="56">
         <f t="shared" si="6"/>
         <v>29.707411747539208</v>
       </c>
-      <c r="K9" s="87">
+      <c r="K9" s="56">
         <f t="shared" si="6"/>
         <v>42.653268469480651</v>
       </c>
-      <c r="L9" s="87">
+      <c r="L9" s="56">
         <f t="shared" si="6"/>
         <v>54.841495838160469</v>
       </c>
-      <c r="M9" s="87">
+      <c r="M9" s="56">
         <f t="shared" si="6"/>
         <v>152.83130042763054</v>
       </c>
-      <c r="O9" s="77">
+      <c r="O9" s="46">
         <f t="shared" si="2"/>
         <v>445.5737644578615</v>
       </c>
-      <c r="P9" s="76">
+      <c r="P9" s="45">
         <f>SUM('SAM_temporary 2022'!CF44)</f>
         <v>445.57376445786144</v>
       </c>
-      <c r="Q9" s="77">
+      <c r="Q9" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="55"/>
-      <c r="C10" s="80" t="str">
+      <c r="B10" s="70"/>
+      <c r="C10" s="49" t="str">
         <f>'SAM_temporary 2022'!B45</f>
         <v>c-p_c</v>
       </c>
-      <c r="D10" s="87">
+      <c r="D10" s="56">
         <f t="shared" si="6"/>
         <v>50.75364755461981</v>
       </c>
-      <c r="E10" s="87">
+      <c r="E10" s="56">
         <f t="shared" si="6"/>
         <v>115.87009525809809</v>
       </c>
-      <c r="F10" s="87">
+      <c r="F10" s="56">
         <f t="shared" si="6"/>
         <v>144.10763105135726</v>
       </c>
-      <c r="G10" s="87">
+      <c r="G10" s="56">
         <f t="shared" si="6"/>
         <v>213.34963641404067</v>
       </c>
-      <c r="H10" s="87">
+      <c r="H10" s="56">
         <f t="shared" si="6"/>
         <v>460.65513744123643</v>
       </c>
-      <c r="I10" s="87">
+      <c r="I10" s="56">
         <f t="shared" si="6"/>
         <v>86.256563414779521</v>
       </c>
-      <c r="J10" s="87">
+      <c r="J10" s="56">
         <f t="shared" si="6"/>
         <v>192.19745137250322</v>
       </c>
-      <c r="K10" s="87">
+      <c r="K10" s="56">
         <f t="shared" si="6"/>
         <v>275.9530033181162</v>
       </c>
-      <c r="L10" s="87">
+      <c r="L10" s="56">
         <f t="shared" si="6"/>
         <v>354.80693569419725</v>
       </c>
-      <c r="M10" s="87">
+      <c r="M10" s="56">
         <f t="shared" si="6"/>
         <v>988.76962697933811</v>
       </c>
-      <c r="O10" s="77">
+      <c r="O10" s="46">
         <f t="shared" si="2"/>
         <v>2882.7197284982867</v>
       </c>
-      <c r="P10" s="76">
+      <c r="P10" s="45">
         <f>SUM('SAM_temporary 2022'!CF45)</f>
         <v>2882.7197284982863</v>
       </c>
-      <c r="Q10" s="77">
+      <c r="Q10" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="55"/>
-      <c r="C11" s="80" t="str">
+      <c r="B11" s="70"/>
+      <c r="C11" s="49" t="str">
         <f>'SAM_temporary 2022'!B46</f>
         <v>c-che</v>
       </c>
-      <c r="D11" s="87">
+      <c r="D11" s="56">
         <f t="shared" si="6"/>
         <v>24.465018139949656</v>
       </c>
-      <c r="E11" s="87">
+      <c r="E11" s="56">
         <f t="shared" si="6"/>
         <v>55.853404020200955</v>
       </c>
-      <c r="F11" s="87">
+      <c r="F11" s="56">
         <f t="shared" si="6"/>
         <v>69.464875484712095</v>
       </c>
-      <c r="G11" s="87">
+      <c r="G11" s="56">
         <f t="shared" si="6"/>
         <v>102.84192322145836</v>
       </c>
-      <c r="H11" s="87">
+      <c r="H11" s="56">
         <f t="shared" si="6"/>
         <v>222.05175069698049</v>
       </c>
-      <c r="I11" s="87">
+      <c r="I11" s="56">
         <f t="shared" si="6"/>
         <v>41.578654743213896</v>
       </c>
-      <c r="J11" s="87">
+      <c r="J11" s="56">
         <f t="shared" si="6"/>
         <v>92.645836522785586</v>
       </c>
-      <c r="K11" s="87">
+      <c r="K11" s="56">
         <f t="shared" si="6"/>
         <v>133.01891700859201</v>
       </c>
-      <c r="L11" s="87">
+      <c r="L11" s="56">
         <f t="shared" si="6"/>
         <v>171.02924688510126</v>
       </c>
-      <c r="M11" s="87">
+      <c r="M11" s="56">
         <f t="shared" si="6"/>
         <v>476.62124843830782</v>
       </c>
-      <c r="O11" s="77">
+      <c r="O11" s="46">
         <f t="shared" si="2"/>
         <v>1389.570875161302</v>
       </c>
-      <c r="P11" s="76">
+      <c r="P11" s="45">
         <f>SUM('SAM_temporary 2022'!CF46)</f>
         <v>1389.570875161302</v>
       </c>
-      <c r="Q11" s="77">
+      <c r="Q11" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="55"/>
-      <c r="C12" s="80" t="str">
+      <c r="B12" s="70"/>
+      <c r="C12" s="49" t="str">
         <f>'SAM_temporary 2022'!B47</f>
         <v>c-bph</v>
       </c>
-      <c r="D12" s="87">
+      <c r="D12" s="56">
         <f t="shared" si="6"/>
         <v>34.943897558078561</v>
       </c>
-      <c r="E12" s="87">
+      <c r="E12" s="56">
         <f t="shared" si="6"/>
         <v>79.776586192872188</v>
       </c>
-      <c r="F12" s="87">
+      <c r="F12" s="56">
         <f t="shared" si="6"/>
         <v>99.218135827119283</v>
       </c>
-      <c r="G12" s="87">
+      <c r="G12" s="56">
         <f t="shared" si="6"/>
         <v>146.89127182203742</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="56">
         <f t="shared" si="6"/>
         <v>317.16116393458975</v>
       </c>
-      <c r="I12" s="87">
+      <c r="I12" s="56">
         <f t="shared" si="6"/>
         <v>59.387662974059545</v>
       </c>
-      <c r="J12" s="87">
+      <c r="J12" s="56">
         <f t="shared" si="6"/>
         <v>132.32798774623652</v>
       </c>
-      <c r="K12" s="87">
+      <c r="K12" s="56">
         <f t="shared" si="6"/>
         <v>189.99370377104319</v>
       </c>
-      <c r="L12" s="87">
+      <c r="L12" s="56">
         <f t="shared" si="6"/>
         <v>244.28465363895305</v>
       </c>
-      <c r="M12" s="87">
+      <c r="M12" s="56">
         <f t="shared" si="6"/>
         <v>680.76810669660972</v>
       </c>
-      <c r="O12" s="77">
+      <c r="O12" s="46">
         <f t="shared" si="2"/>
         <v>1984.7531701615994</v>
       </c>
-      <c r="P12" s="76">
+      <c r="P12" s="45">
         <f>SUM('SAM_temporary 2022'!CF47)</f>
         <v>1984.753170161599</v>
       </c>
-      <c r="Q12" s="77">
+      <c r="Q12" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="55"/>
-      <c r="C13" s="80" t="str">
+      <c r="B13" s="70"/>
+      <c r="C13" s="49" t="str">
         <f>'SAM_temporary 2022'!B48</f>
         <v>c-rnmm</v>
       </c>
-      <c r="D13" s="87">
+      <c r="D13" s="56">
         <f t="shared" si="6"/>
         <v>25.7131829217034</v>
       </c>
-      <c r="E13" s="87">
+      <c r="E13" s="56">
         <f t="shared" si="6"/>
         <v>58.702952360622547</v>
       </c>
-      <c r="F13" s="87">
+      <c r="F13" s="56">
         <f t="shared" si="6"/>
         <v>73.008858597781838</v>
       </c>
-      <c r="G13" s="87">
+      <c r="G13" s="56">
         <f t="shared" si="6"/>
         <v>108.08874813360661</v>
       </c>
-      <c r="H13" s="87">
+      <c r="H13" s="56">
         <f t="shared" si="6"/>
         <v>233.38046393811862</v>
       </c>
-      <c r="I13" s="87">
+      <c r="I13" s="56">
         <f t="shared" si="6"/>
         <v>43.699928973476311</v>
       </c>
-      <c r="J13" s="87">
+      <c r="J13" s="56">
         <f t="shared" si="6"/>
         <v>97.372473946978943</v>
       </c>
-      <c r="K13" s="87">
+      <c r="K13" s="56">
         <f t="shared" si="6"/>
         <v>139.80532225740043</v>
       </c>
-      <c r="L13" s="87">
+      <c r="L13" s="56">
         <f t="shared" si="6"/>
         <v>179.75487632836186</v>
       </c>
-      <c r="M13" s="87">
+      <c r="M13" s="56">
         <f t="shared" si="6"/>
         <v>500.93767661886835</v>
       </c>
-      <c r="O13" s="77">
+      <c r="O13" s="46">
         <f t="shared" si="2"/>
         <v>1460.464484076919</v>
       </c>
-      <c r="P13" s="76">
+      <c r="P13" s="45">
         <f>SUM('SAM_temporary 2022'!CF48)</f>
         <v>1460.4644840769188</v>
       </c>
-      <c r="Q13" s="77">
+      <c r="Q13" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="55"/>
-      <c r="C14" s="80" t="str">
+      <c r="B14" s="70"/>
+      <c r="C14" s="49" t="str">
         <f>'SAM_temporary 2022'!B49</f>
         <v>c-meta</v>
       </c>
-      <c r="D14" s="87">
+      <c r="D14" s="56">
         <f t="shared" si="6"/>
         <v>7.2364431204322308</v>
       </c>
-      <c r="E14" s="87">
+      <c r="E14" s="56">
         <f t="shared" si="6"/>
         <v>16.520730904944948</v>
       </c>
-      <c r="F14" s="87">
+      <c r="F14" s="56">
         <f t="shared" si="6"/>
         <v>20.546832110955496</v>
       </c>
-      <c r="G14" s="87">
+      <c r="G14" s="56">
         <f t="shared" si="6"/>
         <v>30.419340935321024</v>
       </c>
-      <c r="H14" s="87">
+      <c r="H14" s="56">
         <f t="shared" si="6"/>
         <v>65.680101053642773</v>
       </c>
-      <c r="I14" s="87">
+      <c r="I14" s="56">
         <f t="shared" si="6"/>
         <v>12.298440506039871</v>
       </c>
-      <c r="J14" s="87">
+      <c r="J14" s="56">
         <f t="shared" si="6"/>
         <v>27.403467371530031</v>
       </c>
-      <c r="K14" s="87">
+      <c r="K14" s="56">
         <f t="shared" si="6"/>
         <v>39.345314251058724</v>
       </c>
-      <c r="L14" s="87">
+      <c r="L14" s="56">
         <f t="shared" si="6"/>
         <v>50.588289366252781</v>
       </c>
-      <c r="M14" s="87">
+      <c r="M14" s="56">
         <f t="shared" si="6"/>
         <v>140.97854064866476</v>
       </c>
-      <c r="O14" s="77">
+      <c r="O14" s="46">
         <f t="shared" si="2"/>
         <v>411.0175002688427</v>
       </c>
-      <c r="P14" s="76">
+      <c r="P14" s="45">
         <f>SUM('SAM_temporary 2022'!CF49)</f>
         <v>411.01750026884258</v>
       </c>
-      <c r="Q14" s="77">
+      <c r="Q14" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="55"/>
-      <c r="C15" s="80" t="str">
+      <c r="B15" s="70"/>
+      <c r="C15" s="49" t="str">
         <f>'SAM_temporary 2022'!B50</f>
         <v>c-ele</v>
       </c>
-      <c r="D15" s="87">
+      <c r="D15" s="56">
         <f t="shared" si="6"/>
         <v>16.930775413994695</v>
       </c>
-      <c r="E15" s="87">
+      <c r="E15" s="56">
         <f t="shared" si="6"/>
         <v>38.652799444647243</v>
       </c>
-      <c r="F15" s="87">
+      <c r="F15" s="56">
         <f t="shared" si="6"/>
         <v>48.07248452729683</v>
       </c>
-      <c r="G15" s="87">
+      <c r="G15" s="56">
         <f t="shared" si="6"/>
         <v>71.170742455430698</v>
       </c>
-      <c r="H15" s="87">
+      <c r="H15" s="56">
         <f t="shared" si="6"/>
         <v>153.66873222120785</v>
       </c>
-      <c r="I15" s="87">
+      <c r="I15" s="56">
         <f t="shared" si="6"/>
         <v>28.774099469146282</v>
       </c>
-      <c r="J15" s="87">
+      <c r="J15" s="56">
         <f t="shared" si="6"/>
         <v>64.114640840898943</v>
       </c>
-      <c r="K15" s="87">
+      <c r="K15" s="56">
         <f t="shared" si="6"/>
         <v>92.054434491006035</v>
       </c>
-      <c r="L15" s="87">
+      <c r="L15" s="56">
         <f t="shared" si="6"/>
         <v>118.35910979799745</v>
       </c>
-      <c r="M15" s="87">
+      <c r="M15" s="56">
         <f t="shared" si="6"/>
         <v>329.84105176973981</v>
       </c>
-      <c r="O15" s="77">
+      <c r="O15" s="46">
         <f t="shared" si="2"/>
         <v>961.63887043136583</v>
       </c>
-      <c r="P15" s="76">
+      <c r="P15" s="45">
         <f>SUM('SAM_temporary 2022'!CF50)</f>
         <v>961.63887043136572</v>
       </c>
-      <c r="Q15" s="77">
+      <c r="Q15" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="55"/>
-      <c r="C16" s="80" t="str">
+      <c r="B16" s="70"/>
+      <c r="C16" s="49" t="str">
         <f>'SAM_temporary 2022'!B51</f>
         <v>c-eeq</v>
       </c>
-      <c r="D16" s="87">
+      <c r="D16" s="56">
         <f t="shared" si="6"/>
         <v>22.037043398709709</v>
       </c>
-      <c r="E16" s="87">
+      <c r="E16" s="56">
         <f t="shared" si="6"/>
         <v>50.310360749291831</v>
       </c>
-      <c r="F16" s="87">
+      <c r="F16" s="56">
         <f t="shared" si="6"/>
         <v>62.570992875859623</v>
       </c>
-      <c r="G16" s="87">
+      <c r="G16" s="56">
         <f t="shared" si="6"/>
         <v>92.635611887705451</v>
       </c>
-      <c r="H16" s="87">
+      <c r="H16" s="56">
         <f t="shared" si="6"/>
         <v>200.01473282696276</v>
       </c>
-      <c r="I16" s="87">
+      <c r="I16" s="56">
         <f t="shared" si="6"/>
         <v>37.4522762989481</v>
       </c>
-      <c r="J16" s="87">
+      <c r="J16" s="56">
         <f t="shared" si="6"/>
         <v>83.451412481421201</v>
       </c>
-      <c r="K16" s="87">
+      <c r="K16" s="56">
         <f t="shared" si="6"/>
         <v>119.81775898138528</v>
       </c>
-      <c r="L16" s="87">
+      <c r="L16" s="56">
         <f t="shared" si="6"/>
         <v>154.05584064951648</v>
       </c>
-      <c r="M16" s="87">
+      <c r="M16" s="56">
         <f t="shared" si="6"/>
         <v>429.32006330422467</v>
       </c>
-      <c r="O16" s="77">
+      <c r="O16" s="46">
         <f t="shared" si="2"/>
         <v>1251.6660934540253</v>
       </c>
-      <c r="P16" s="76">
+      <c r="P16" s="45">
         <f>SUM('SAM_temporary 2022'!CF51)</f>
         <v>1251.666093454025</v>
       </c>
-      <c r="Q16" s="77">
+      <c r="Q16" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="55"/>
-      <c r="C17" s="80" t="str">
+      <c r="B17" s="70"/>
+      <c r="C17" s="49" t="str">
         <f>'SAM_temporary 2022'!B52</f>
         <v>c-ome</v>
       </c>
-      <c r="D17" s="87">
+      <c r="D17" s="56">
         <f t="shared" si="6"/>
         <v>16.868219858471466</v>
       </c>
-      <c r="E17" s="87">
+      <c r="E17" s="56">
         <f t="shared" si="6"/>
         <v>38.509985705603178</v>
       </c>
-      <c r="F17" s="87">
+      <c r="F17" s="56">
         <f t="shared" si="6"/>
         <v>47.894867087962005</v>
       </c>
-      <c r="G17" s="87">
+      <c r="G17" s="56">
         <f t="shared" si="6"/>
         <v>70.907781945800409</v>
       </c>
-      <c r="H17" s="87">
+      <c r="H17" s="56">
         <f t="shared" si="6"/>
         <v>153.10095947154974</v>
       </c>
-      <c r="I17" s="87">
+      <c r="I17" s="56">
         <f t="shared" si="6"/>
         <v>28.667785391204809</v>
       </c>
-      <c r="J17" s="87">
+      <c r="J17" s="56">
         <f t="shared" si="6"/>
         <v>63.877751101539488</v>
       </c>
-      <c r="K17" s="87">
+      <c r="K17" s="56">
         <f t="shared" si="6"/>
         <v>91.71431325336907</v>
       </c>
-      <c r="L17" s="87">
+      <c r="L17" s="56">
         <f t="shared" si="6"/>
         <v>117.92179847092568</v>
       </c>
-      <c r="M17" s="87">
+      <c r="M17" s="56">
         <f t="shared" si="6"/>
         <v>328.62236037945854</v>
       </c>
-      <c r="O17" s="77">
+      <c r="O17" s="46">
         <f t="shared" si="2"/>
         <v>958.08582266588439</v>
       </c>
-      <c r="P17" s="76">
+      <c r="P17" s="45">
         <f>SUM('SAM_temporary 2022'!CF52)</f>
         <v>958.08582266588428</v>
       </c>
-      <c r="Q17" s="77">
+      <c r="Q17" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="55"/>
-      <c r="C18" s="80" t="str">
+      <c r="B18" s="70"/>
+      <c r="C18" s="49" t="str">
         <f>'SAM_temporary 2022'!B53</f>
         <v>c-mvh</v>
       </c>
-      <c r="D18" s="87">
+      <c r="D18" s="56">
         <f t="shared" si="6"/>
         <v>18.232820070367644</v>
       </c>
-      <c r="E18" s="87">
+      <c r="E18" s="56">
         <f t="shared" si="6"/>
         <v>41.625355027019346</v>
       </c>
-      <c r="F18" s="87">
+      <c r="F18" s="56">
         <f t="shared" si="6"/>
         <v>51.76945174036377</v>
       </c>
-      <c r="G18" s="87">
+      <c r="G18" s="56">
         <f t="shared" si="6"/>
         <v>76.64405851085435</v>
       </c>
-      <c r="H18" s="87">
+      <c r="H18" s="56">
         <f t="shared" si="6"/>
         <v>165.48647516255261</v>
       </c>
-      <c r="I18" s="87">
+      <c r="I18" s="56">
         <f t="shared" si="6"/>
         <v>30.986943331263646</v>
       </c>
-      <c r="J18" s="87">
+      <c r="J18" s="56">
         <f t="shared" si="6"/>
         <v>69.045314331090069</v>
       </c>
-      <c r="K18" s="87">
+      <c r="K18" s="56">
         <f t="shared" si="6"/>
         <v>99.133790373629978</v>
       </c>
-      <c r="L18" s="87">
+      <c r="L18" s="56">
         <f t="shared" si="6"/>
         <v>127.46140090264221</v>
       </c>
-      <c r="M18" s="87">
+      <c r="M18" s="56">
         <f t="shared" si="6"/>
         <v>355.20715393622612</v>
       </c>
-      <c r="O18" s="77">
+      <c r="O18" s="46">
         <f t="shared" si="2"/>
         <v>1035.5927633860099</v>
       </c>
-      <c r="P18" s="76">
+      <c r="P18" s="45">
         <f>SUM('SAM_temporary 2022'!CF53)</f>
         <v>1035.5927633860097</v>
       </c>
-      <c r="Q18" s="77">
+      <c r="Q18" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="55"/>
-      <c r="C19" s="80" t="str">
+      <c r="B19" s="70"/>
+      <c r="C19" s="49" t="str">
         <f>'SAM_temporary 2022'!B54</f>
         <v>c-omf</v>
       </c>
-      <c r="D19" s="87">
+      <c r="D19" s="56">
         <f>$P19*D$48/SUM($D$48:$M$48)</f>
         <v>14.745672591914653</v>
       </c>
-      <c r="E19" s="87">
+      <c r="E19" s="56">
         <f t="shared" ref="E19:M19" si="7">$P19*E$48/SUM($D$48:$M$48)</f>
         <v>33.66423045813886</v>
       </c>
-      <c r="F19" s="87">
+      <c r="F19" s="56">
         <f t="shared" si="7"/>
         <v>41.868201555226435</v>
       </c>
-      <c r="G19" s="87">
+      <c r="G19" s="56">
         <f t="shared" si="7"/>
         <v>61.985375194558117</v>
       </c>
-      <c r="H19" s="87">
+      <c r="H19" s="56">
         <f t="shared" si="7"/>
         <v>133.83609182338699</v>
       </c>
-      <c r="I19" s="87">
+      <c r="I19" s="56">
         <f t="shared" si="7"/>
         <v>25.06048538973014</v>
       </c>
-      <c r="J19" s="87">
+      <c r="J19" s="56">
         <f t="shared" si="7"/>
         <v>55.839941117323697</v>
       </c>
-      <c r="K19" s="87">
+      <c r="K19" s="56">
         <f t="shared" si="7"/>
         <v>80.173797032132555</v>
       </c>
-      <c r="L19" s="87">
+      <c r="L19" s="56">
         <f t="shared" si="7"/>
         <v>103.083564613888</v>
       </c>
-      <c r="M19" s="87">
+      <c r="M19" s="56">
         <f t="shared" si="7"/>
         <v>287.27143546828216</v>
       </c>
-      <c r="O19" s="77">
+      <c r="O19" s="46">
         <f t="shared" si="2"/>
         <v>837.52879524458172</v>
       </c>
-      <c r="P19" s="76">
+      <c r="P19" s="45">
         <f>SUM('SAM_temporary 2022'!CF54)</f>
         <v>837.52879524458149</v>
       </c>
-      <c r="Q19" s="77">
+      <c r="Q19" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="55"/>
-      <c r="C20" s="81" t="str">
+      <c r="B20" s="70"/>
+      <c r="C20" s="50" t="str">
         <f>'SAM_temporary 2022'!B55</f>
         <v>c-ely</v>
       </c>
-      <c r="D20" s="87">
+      <c r="D20" s="56">
         <f>$P20*D$49/SUM($D$49:$M$49)</f>
         <v>37.451418030527485</v>
       </c>
-      <c r="E20" s="87">
+      <c r="E20" s="56">
         <f t="shared" ref="E20:M21" si="8">$P20*E$49/SUM($D$49:$M$49)</f>
         <v>47.496386770752508</v>
       </c>
-      <c r="F20" s="87">
+      <c r="F20" s="56">
         <f t="shared" si="8"/>
         <v>54.381668582604362</v>
       </c>
-      <c r="G20" s="87">
+      <c r="G20" s="56">
         <f t="shared" si="8"/>
         <v>72.65583695034907</v>
       </c>
-      <c r="H20" s="87">
+      <c r="H20" s="56">
         <f t="shared" si="8"/>
         <v>120.49509837188916</v>
       </c>
-      <c r="I20" s="87">
+      <c r="I20" s="56">
         <f t="shared" si="8"/>
         <v>79.083761005937433</v>
       </c>
-      <c r="J20" s="87">
+      <c r="J20" s="56">
         <f t="shared" si="8"/>
         <v>128.91463095681524</v>
       </c>
-      <c r="K20" s="87">
+      <c r="K20" s="56">
         <f t="shared" si="8"/>
         <v>154.98926103789174</v>
       </c>
-      <c r="L20" s="87">
+      <c r="L20" s="56">
         <f t="shared" si="8"/>
         <v>191.13123686624041</v>
       </c>
-      <c r="M20" s="87">
+      <c r="M20" s="56">
         <f t="shared" si="8"/>
         <v>269.64322554036966</v>
       </c>
-      <c r="O20" s="77">
+      <c r="O20" s="46">
         <f t="shared" si="2"/>
         <v>1156.2425241133772</v>
       </c>
-      <c r="P20" s="76">
+      <c r="P20" s="45">
         <f>SUM('SAM_temporary 2022'!CF55)</f>
         <v>1156.2425241133772</v>
       </c>
-      <c r="Q20" s="77">
+      <c r="Q20" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="55"/>
-      <c r="C21" s="81" t="str">
+      <c r="B21" s="70"/>
+      <c r="C21" s="50" t="str">
         <f>'SAM_temporary 2022'!B56</f>
         <v>c-wtr</v>
       </c>
-      <c r="D21" s="87">
+      <c r="D21" s="56">
         <f>$P21*D$49/SUM($D$49:$M$49)</f>
         <v>9.9184804063184355</v>
       </c>
-      <c r="E21" s="87">
+      <c r="E21" s="56">
         <f t="shared" si="8"/>
         <v>12.578748851982946</v>
       </c>
-      <c r="F21" s="87">
+      <c r="F21" s="56">
         <f t="shared" si="8"/>
         <v>14.402218732006377</v>
       </c>
-      <c r="G21" s="87">
+      <c r="G21" s="56">
         <f t="shared" si="8"/>
         <v>19.241874756499161</v>
       </c>
-      <c r="H21" s="87">
+      <c r="H21" s="56">
         <f t="shared" si="8"/>
         <v>31.911429128926962</v>
       </c>
-      <c r="I21" s="87">
+      <c r="I21" s="56">
         <f t="shared" si="8"/>
         <v>20.94421987856337</v>
       </c>
-      <c r="J21" s="87">
+      <c r="J21" s="56">
         <f t="shared" si="8"/>
         <v>34.1412237098926</v>
       </c>
-      <c r="K21" s="87">
+      <c r="K21" s="56">
         <f t="shared" si="8"/>
         <v>41.046722117198584</v>
       </c>
-      <c r="L21" s="87">
+      <c r="L21" s="56">
         <f t="shared" si="8"/>
         <v>50.61841520521228</v>
       </c>
-      <c r="M21" s="87">
+      <c r="M21" s="56">
         <f t="shared" si="8"/>
         <v>71.411209237488819</v>
       </c>
-      <c r="O21" s="77">
+      <c r="O21" s="46">
         <f t="shared" si="2"/>
         <v>306.21454202408955</v>
       </c>
-      <c r="P21" s="76">
+      <c r="P21" s="45">
         <f>SUM('SAM_temporary 2022'!CF56)</f>
         <v>306.21454202408955</v>
       </c>
-      <c r="Q21" s="77">
+      <c r="Q21" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="55"/>
-      <c r="C22" s="80" t="str">
+      <c r="B22" s="70"/>
+      <c r="C22" s="49" t="str">
         <f>'SAM_temporary 2022'!B57</f>
         <v>c-cns</v>
       </c>
-      <c r="D22" s="87">
+      <c r="D22" s="56">
         <f t="shared" ref="D22:M23" si="9">$P22*D$48/SUM($D$48:$M$48)</f>
         <v>18.786663610618149</v>
       </c>
-      <c r="E22" s="87">
+      <c r="E22" s="56">
         <f t="shared" si="9"/>
         <v>42.889774568449269</v>
       </c>
-      <c r="F22" s="87">
+      <c r="F22" s="56">
         <f t="shared" si="9"/>
         <v>53.342010253970194</v>
       </c>
-      <c r="G22" s="87">
+      <c r="G22" s="56">
         <f t="shared" si="9"/>
         <v>78.972212715250151</v>
       </c>
-      <c r="H22" s="87">
+      <c r="H22" s="56">
         <f t="shared" si="9"/>
         <v>170.51332317146611</v>
       </c>
-      <c r="I22" s="87">
+      <c r="I22" s="56">
         <f t="shared" si="9"/>
         <v>31.928208496492839</v>
       </c>
-      <c r="J22" s="87">
+      <c r="J22" s="56">
         <f t="shared" si="9"/>
         <v>71.142647666210777</v>
       </c>
-      <c r="K22" s="87">
+      <c r="K22" s="56">
         <f t="shared" si="9"/>
         <v>102.14509686418296</v>
       </c>
-      <c r="L22" s="87">
+      <c r="L22" s="56">
         <f t="shared" si="9"/>
         <v>131.33319216964094</v>
       </c>
-      <c r="M22" s="87">
+      <c r="M22" s="56">
         <f t="shared" si="9"/>
         <v>365.99699263913055</v>
       </c>
-      <c r="O22" s="77">
+      <c r="O22" s="46">
         <f t="shared" si="2"/>
         <v>1067.0501221554118</v>
       </c>
-      <c r="P22" s="76">
+      <c r="P22" s="45">
         <f>SUM('SAM_temporary 2022'!CF57)</f>
         <v>1067.0501221554118</v>
       </c>
-      <c r="Q22" s="77">
+      <c r="Q22" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="55"/>
-      <c r="C23" s="80" t="str">
+      <c r="B23" s="70"/>
+      <c r="C23" s="49" t="str">
         <f>'SAM_temporary 2022'!B58</f>
         <v>c-trd</v>
       </c>
-      <c r="D23" s="87">
+      <c r="D23" s="56">
         <f t="shared" si="9"/>
         <v>5.4527763345172069</v>
       </c>
-      <c r="E23" s="87">
+      <c r="E23" s="56">
         <f t="shared" si="9"/>
         <v>12.448636575758808</v>
       </c>
-      <c r="F23" s="87">
+      <c r="F23" s="56">
         <f t="shared" si="9"/>
         <v>15.48236861940876</v>
       </c>
-      <c r="G23" s="87">
+      <c r="G23" s="56">
         <f t="shared" si="9"/>
         <v>22.921462879379568</v>
       </c>
-      <c r="H23" s="87">
+      <c r="H23" s="56">
         <f t="shared" si="9"/>
         <v>49.491013017540375</v>
       </c>
-      <c r="I23" s="87">
+      <c r="I23" s="56">
         <f t="shared" si="9"/>
         <v>9.2670728183373789</v>
       </c>
-      <c r="J23" s="87">
+      <c r="J23" s="56">
         <f t="shared" si="9"/>
         <v>20.648953619947516</v>
       </c>
-      <c r="K23" s="87">
+      <c r="K23" s="56">
         <f t="shared" si="9"/>
         <v>29.647327402678616</v>
       </c>
-      <c r="L23" s="87">
+      <c r="L23" s="56">
         <f t="shared" si="9"/>
         <v>38.119090065277177</v>
       </c>
-      <c r="M23" s="87">
+      <c r="M23" s="56">
         <f t="shared" si="9"/>
         <v>106.22959889690885</v>
       </c>
-      <c r="O23" s="77">
+      <c r="O23" s="46">
         <f t="shared" si="2"/>
         <v>309.70830022975423</v>
       </c>
-      <c r="P23" s="76">
+      <c r="P23" s="45">
         <f>SUM('SAM_temporary 2022'!CF58)</f>
         <v>309.70830022975423</v>
       </c>
-      <c r="Q23" s="77">
+      <c r="Q23" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="55"/>
-      <c r="C24" s="82" t="str">
+      <c r="B24" s="70"/>
+      <c r="C24" s="51" t="str">
         <f>'SAM_temporary 2022'!B59</f>
         <v>c-trans</v>
       </c>
-      <c r="D24" s="87">
+      <c r="D24" s="56">
         <f>$P24*D$50/SUM($D$50:$M$50)</f>
         <v>22.075928830028381</v>
       </c>
-      <c r="E24" s="87">
+      <c r="E24" s="56">
         <f t="shared" ref="E24:M24" si="10">$P24*E$50/SUM($D$50:$M$50)</f>
         <v>45.702915164831559</v>
       </c>
-      <c r="F24" s="87">
+      <c r="F24" s="56">
         <f t="shared" si="10"/>
         <v>69.673176169780518</v>
       </c>
-      <c r="G24" s="87">
+      <c r="G24" s="56">
         <f t="shared" si="10"/>
         <v>116.18991286784836</v>
       </c>
-      <c r="H24" s="87">
+      <c r="H24" s="56">
         <f t="shared" si="10"/>
         <v>193.69959227824</v>
       </c>
-      <c r="I24" s="87">
+      <c r="I24" s="56">
         <f t="shared" si="10"/>
         <v>25.647736972329092</v>
       </c>
-      <c r="J24" s="87">
+      <c r="J24" s="56">
         <f t="shared" si="10"/>
         <v>69.549332762324781</v>
       </c>
-      <c r="K24" s="87">
+      <c r="K24" s="56">
         <f t="shared" si="10"/>
         <v>138.77985616584098</v>
       </c>
-      <c r="L24" s="87">
+      <c r="L24" s="56">
         <f t="shared" si="10"/>
         <v>232.5496091345627</v>
       </c>
-      <c r="M24" s="87">
+      <c r="M24" s="56">
         <f t="shared" si="10"/>
         <v>409.52002895178515</v>
       </c>
-      <c r="O24" s="77">
+      <c r="O24" s="46">
         <f t="shared" si="2"/>
         <v>1323.3880892975715</v>
       </c>
-      <c r="P24" s="76">
+      <c r="P24" s="45">
         <f>SUM('SAM_temporary 2022'!CF59)</f>
         <v>1323.3880892975715</v>
       </c>
-      <c r="Q24" s="77">
+      <c r="Q24" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="55"/>
-      <c r="C25" s="78" t="str">
+      <c r="B25" s="70"/>
+      <c r="C25" s="47" t="str">
         <f>'SAM_temporary 2022'!B60</f>
         <v>c-afs</v>
       </c>
-      <c r="D25" s="87">
+      <c r="D25" s="56">
         <f>$P25*D$46/SUM($D$46:$M$46)</f>
         <v>52.119868337408406</v>
       </c>
-      <c r="E25" s="87">
+      <c r="E25" s="56">
         <f t="shared" ref="E25:M25" si="11">$P25*E$46/SUM($D$46:$M$46)</f>
         <v>69.727512008405114</v>
       </c>
-      <c r="F25" s="87">
+      <c r="F25" s="56">
         <f t="shared" si="11"/>
         <v>86.861228166171216</v>
       </c>
-      <c r="G25" s="87">
+      <c r="G25" s="56">
         <f t="shared" si="11"/>
         <v>106.10750461755202</v>
       </c>
-      <c r="H25" s="87">
+      <c r="H25" s="56">
         <f t="shared" si="11"/>
         <v>161.17953937777807</v>
       </c>
-      <c r="I25" s="87">
+      <c r="I25" s="56">
         <f t="shared" si="11"/>
         <v>62.181719709066634</v>
       </c>
-      <c r="J25" s="87">
+      <c r="J25" s="56">
         <f t="shared" si="11"/>
         <v>122.66524677725454</v>
       </c>
-      <c r="K25" s="87">
+      <c r="K25" s="56">
         <f t="shared" si="11"/>
         <v>175.75249424614853</v>
       </c>
-      <c r="L25" s="87">
+      <c r="L25" s="56">
         <f t="shared" si="11"/>
         <v>227.18490623668322</v>
       </c>
-      <c r="M25" s="87">
+      <c r="M25" s="56">
         <f t="shared" si="11"/>
         <v>339.05484404474714</v>
       </c>
-      <c r="O25" s="77">
+      <c r="O25" s="46">
         <f t="shared" si="2"/>
         <v>1402.8348635212149</v>
       </c>
-      <c r="P25" s="76">
+      <c r="P25" s="45">
         <f>SUM('SAM_temporary 2022'!CF60)</f>
         <v>1402.8348635212146</v>
       </c>
-      <c r="Q25" s="77">
+      <c r="Q25" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="55"/>
-      <c r="C26" s="86" t="str">
+      <c r="B26" s="70"/>
+      <c r="C26" s="55" t="str">
         <f>'SAM_temporary 2022'!B61</f>
         <v>c-publ</v>
       </c>
-      <c r="D26" s="87">
+      <c r="D26" s="56">
         <f t="shared" ref="D26:M35" si="12">$P26*D$53/SUM($D$53:$M$53)</f>
         <v>8.8482241490028386</v>
       </c>
-      <c r="E26" s="87">
+      <c r="E26" s="56">
         <f t="shared" si="12"/>
         <v>12.244675264564455</v>
       </c>
-      <c r="F26" s="87">
+      <c r="F26" s="56">
         <f t="shared" si="12"/>
         <v>13.454967810941117</v>
       </c>
-      <c r="G26" s="87">
+      <c r="G26" s="56">
         <f t="shared" si="12"/>
         <v>17.332256273478066</v>
       </c>
-      <c r="H26" s="87">
+      <c r="H26" s="56">
         <f t="shared" si="12"/>
         <v>28.814390626547606</v>
       </c>
-      <c r="I26" s="87">
+      <c r="I26" s="56">
         <f t="shared" si="12"/>
         <v>13.464520801005436</v>
       </c>
-      <c r="J26" s="87">
+      <c r="J26" s="56">
         <f t="shared" si="12"/>
         <v>27.117421102173605</v>
       </c>
-      <c r="K26" s="87">
+      <c r="K26" s="56">
         <f t="shared" si="12"/>
         <v>39.484938429148471</v>
       </c>
-      <c r="L26" s="87">
+      <c r="L26" s="56">
         <f t="shared" si="12"/>
         <v>56.134427483662328</v>
       </c>
-      <c r="M26" s="87">
+      <c r="M26" s="56">
         <f t="shared" si="12"/>
         <v>111.58926563959106</v>
       </c>
-      <c r="O26" s="77">
+      <c r="O26" s="46">
         <f t="shared" si="2"/>
         <v>328.48508758011496</v>
       </c>
-      <c r="P26" s="76">
+      <c r="P26" s="45">
         <f>SUM('SAM_temporary 2022'!CF61)</f>
         <v>328.48508758011496</v>
       </c>
-      <c r="Q26" s="77">
+      <c r="Q26" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="55"/>
-      <c r="C27" s="86" t="str">
+      <c r="B27" s="70"/>
+      <c r="C27" s="55" t="str">
         <f>'SAM_temporary 2022'!B62</f>
         <v>c-tele</v>
       </c>
-      <c r="D27" s="87">
+      <c r="D27" s="56">
         <f t="shared" si="12"/>
         <v>32.351275169503602</v>
       </c>
-      <c r="E27" s="87">
+      <c r="E27" s="56">
         <f t="shared" si="12"/>
         <v>44.769532527019152</v>
       </c>
-      <c r="F27" s="87">
+      <c r="F27" s="56">
         <f t="shared" si="12"/>
         <v>49.194658579894195</v>
       </c>
-      <c r="G27" s="87">
+      <c r="G27" s="56">
         <f t="shared" si="12"/>
         <v>63.370975075810534</v>
       </c>
-      <c r="H27" s="87">
+      <c r="H27" s="56">
         <f t="shared" si="12"/>
         <v>105.35247121944352</v>
       </c>
-      <c r="I27" s="87">
+      <c r="I27" s="56">
         <f t="shared" si="12"/>
         <v>49.229586651907063</v>
       </c>
-      <c r="J27" s="87">
+      <c r="J27" s="56">
         <f t="shared" si="12"/>
         <v>99.147934906530182</v>
       </c>
-      <c r="K27" s="87">
+      <c r="K27" s="56">
         <f t="shared" si="12"/>
         <v>144.36660810816437</v>
       </c>
-      <c r="L27" s="87">
+      <c r="L27" s="56">
         <f t="shared" si="12"/>
         <v>205.24121896382607</v>
       </c>
-      <c r="M27" s="87">
+      <c r="M27" s="56">
         <f t="shared" si="12"/>
         <v>407.99769285637763</v>
       </c>
-      <c r="O27" s="77">
+      <c r="O27" s="46">
         <f t="shared" si="2"/>
         <v>1201.0219540584762</v>
       </c>
-      <c r="P27" s="76">
+      <c r="P27" s="45">
         <f>SUM('SAM_temporary 2022'!CF62)</f>
         <v>1201.0219540584762</v>
       </c>
-      <c r="Q27" s="77">
+      <c r="Q27" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="55"/>
-      <c r="C28" s="86" t="str">
+      <c r="B28" s="70"/>
+      <c r="C28" s="55" t="str">
         <f>'SAM_temporary 2022'!B63</f>
         <v>c-info</v>
       </c>
-      <c r="D28" s="87">
+      <c r="D28" s="56">
         <f t="shared" si="12"/>
         <v>4.8768725625126388</v>
       </c>
-      <c r="E28" s="87">
+      <c r="E28" s="56">
         <f t="shared" si="12"/>
         <v>6.7488933179163748</v>
       </c>
-      <c r="F28" s="87">
+      <c r="F28" s="56">
         <f t="shared" si="12"/>
         <v>7.4159698309704751</v>
       </c>
-      <c r="G28" s="87">
+      <c r="G28" s="56">
         <f t="shared" si="12"/>
         <v>9.5530135361781703</v>
       </c>
-      <c r="H28" s="87">
+      <c r="H28" s="56">
         <f t="shared" si="12"/>
         <v>15.881617450657359</v>
       </c>
-      <c r="I28" s="87">
+      <c r="I28" s="56">
         <f t="shared" si="12"/>
         <v>7.4212351491122961</v>
       </c>
-      <c r="J28" s="87">
+      <c r="J28" s="56">
         <f t="shared" si="12"/>
         <v>14.946299360442348</v>
       </c>
-      <c r="K28" s="87">
+      <c r="K28" s="56">
         <f t="shared" si="12"/>
         <v>21.762899494280571</v>
       </c>
-      <c r="L28" s="87">
+      <c r="L28" s="56">
         <f t="shared" si="12"/>
         <v>30.939592464808872</v>
       </c>
-      <c r="M28" s="87">
+      <c r="M28" s="56">
         <f t="shared" si="12"/>
         <v>61.504615921149096</v>
       </c>
-      <c r="O28" s="77">
+      <c r="O28" s="46">
         <f t="shared" si="2"/>
         <v>181.0510090880282</v>
       </c>
-      <c r="P28" s="76">
+      <c r="P28" s="45">
         <f>SUM('SAM_temporary 2022'!CF63)</f>
         <v>181.0510090880282</v>
       </c>
-      <c r="Q28" s="77">
+      <c r="Q28" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="55"/>
-      <c r="C29" s="86" t="str">
+      <c r="B29" s="70"/>
+      <c r="C29" s="55" t="str">
         <f>'SAM_temporary 2022'!B64</f>
         <v>c-ofi</v>
       </c>
-      <c r="D29" s="87">
+      <c r="D29" s="56">
         <f t="shared" si="12"/>
         <v>47.137610378373388</v>
       </c>
-      <c r="E29" s="87">
+      <c r="E29" s="56">
         <f t="shared" si="12"/>
         <v>65.231703233443952</v>
       </c>
-      <c r="F29" s="87">
+      <c r="F29" s="56">
         <f t="shared" si="12"/>
         <v>71.679358439079977</v>
       </c>
-      <c r="G29" s="87">
+      <c r="G29" s="56">
         <f t="shared" si="12"/>
         <v>92.335041409343091</v>
       </c>
-      <c r="H29" s="87">
+      <c r="H29" s="56">
         <f t="shared" si="12"/>
         <v>153.50442029630585</v>
       </c>
-      <c r="I29" s="87">
+      <c r="I29" s="56">
         <f t="shared" si="12"/>
         <v>71.730250586025761</v>
       </c>
-      <c r="J29" s="87">
+      <c r="J29" s="56">
         <f t="shared" si="12"/>
         <v>144.46406520167031</v>
       </c>
-      <c r="K29" s="87">
+      <c r="K29" s="56">
         <f t="shared" si="12"/>
         <v>210.35019142197206</v>
       </c>
-      <c r="L29" s="87">
+      <c r="L29" s="56">
         <f t="shared" si="12"/>
         <v>299.04789107723138</v>
       </c>
-      <c r="M29" s="87">
+      <c r="M29" s="56">
         <f t="shared" si="12"/>
         <v>594.47537014765157</v>
       </c>
-      <c r="O29" s="77">
+      <c r="O29" s="46">
         <f t="shared" si="2"/>
         <v>1749.9559021910973</v>
       </c>
-      <c r="P29" s="76">
+      <c r="P29" s="45">
         <f>SUM('SAM_temporary 2022'!CF64)</f>
         <v>1749.9559021910973</v>
       </c>
-      <c r="Q29" s="77">
+      <c r="Q29" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="55"/>
-      <c r="C30" s="86" t="str">
+      <c r="B30" s="70"/>
+      <c r="C30" s="55" t="str">
         <f>'SAM_temporary 2022'!B65</f>
         <v>c-rsa</v>
       </c>
-      <c r="D30" s="87">
+      <c r="D30" s="56">
         <f t="shared" si="12"/>
         <v>146.01535686114255</v>
       </c>
-      <c r="E30" s="87">
+      <c r="E30" s="56">
         <f t="shared" si="12"/>
         <v>202.06434627966274</v>
       </c>
-      <c r="F30" s="87">
+      <c r="F30" s="56">
         <f t="shared" si="12"/>
         <v>222.03686224327396</v>
       </c>
-      <c r="G30" s="87">
+      <c r="G30" s="56">
         <f t="shared" si="12"/>
         <v>286.02073617968693</v>
       </c>
-      <c r="H30" s="87">
+      <c r="H30" s="56">
         <f t="shared" si="12"/>
         <v>475.50146325642766</v>
       </c>
-      <c r="I30" s="87">
+      <c r="I30" s="56">
         <f t="shared" si="12"/>
         <v>222.19450780354038</v>
       </c>
-      <c r="J30" s="87">
+      <c r="J30" s="56">
         <f t="shared" si="12"/>
         <v>447.49769588895231</v>
       </c>
-      <c r="K30" s="87">
+      <c r="K30" s="56">
         <f t="shared" si="12"/>
         <v>651.5892091208035</v>
       </c>
-      <c r="L30" s="87">
+      <c r="L30" s="56">
         <f t="shared" si="12"/>
         <v>926.34276926026962</v>
       </c>
-      <c r="M30" s="87">
+      <c r="M30" s="56">
         <f t="shared" si="12"/>
         <v>1841.4708047460535</v>
       </c>
-      <c r="O30" s="77">
+      <c r="O30" s="46">
         <f t="shared" si="2"/>
         <v>5420.7337516398129</v>
       </c>
-      <c r="P30" s="76">
+      <c r="P30" s="45">
         <f>SUM('SAM_temporary 2022'!CF65)</f>
         <v>5420.7337516398129</v>
       </c>
-      <c r="Q30" s="77">
+      <c r="Q30" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="55"/>
-      <c r="C31" s="86" t="str">
+      <c r="B31" s="70"/>
+      <c r="C31" s="55" t="str">
         <f>'SAM_temporary 2022'!B66</f>
         <v>c-obs</v>
       </c>
-      <c r="D31" s="87">
+      <c r="D31" s="56">
         <f t="shared" si="12"/>
         <v>9.7766376603188281</v>
       </c>
-      <c r="E31" s="87">
+      <c r="E31" s="56">
         <f t="shared" si="12"/>
         <v>13.529466626747505</v>
       </c>
-      <c r="F31" s="87">
+      <c r="F31" s="56">
         <f t="shared" si="12"/>
         <v>14.866750977782253</v>
       </c>
-      <c r="G31" s="87">
+      <c r="G31" s="56">
         <f t="shared" si="12"/>
         <v>19.150869888471281</v>
       </c>
-      <c r="H31" s="87">
+      <c r="H31" s="56">
         <f t="shared" si="12"/>
         <v>31.837784827183718</v>
       </c>
-      <c r="I31" s="87">
+      <c r="I31" s="56">
         <f t="shared" si="12"/>
         <v>14.877306330004203</v>
       </c>
-      <c r="J31" s="87">
+      <c r="J31" s="56">
         <f t="shared" si="12"/>
         <v>29.96275816861089</v>
       </c>
-      <c r="K31" s="87">
+      <c r="K31" s="56">
         <f t="shared" si="12"/>
         <v>43.627956249874977</v>
       </c>
-      <c r="L31" s="87">
+      <c r="L31" s="56">
         <f t="shared" si="12"/>
         <v>62.024418520077582</v>
       </c>
-      <c r="M31" s="87">
+      <c r="M31" s="56">
         <f t="shared" si="12"/>
         <v>123.29794075823628</v>
       </c>
-      <c r="O31" s="77">
+      <c r="O31" s="46">
         <f t="shared" si="2"/>
         <v>362.9518900073075</v>
       </c>
-      <c r="P31" s="76">
+      <c r="P31" s="45">
         <f>SUM('SAM_temporary 2022'!CF66)</f>
         <v>362.9518900073075</v>
       </c>
-      <c r="Q31" s="77">
+      <c r="Q31" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="55"/>
-      <c r="C32" s="86" t="str">
+      <c r="B32" s="70"/>
+      <c r="C32" s="55" t="str">
         <f>'SAM_temporary 2022'!B67</f>
         <v>c-scie</v>
       </c>
-      <c r="D32" s="87">
+      <c r="D32" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E32" s="87">
+      <c r="E32" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F32" s="87">
+      <c r="F32" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G32" s="87">
+      <c r="G32" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H32" s="87">
+      <c r="H32" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I32" s="87">
+      <c r="I32" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J32" s="87">
+      <c r="J32" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K32" s="87">
+      <c r="K32" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L32" s="87">
+      <c r="L32" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M32" s="87">
+      <c r="M32" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O32" s="77">
+      <c r="O32" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P32" s="76">
+      <c r="P32" s="45">
         <f>SUM('SAM_temporary 2022'!CF67)</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="77">
+      <c r="Q32" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="55"/>
-      <c r="C33" s="86" t="str">
+      <c r="B33" s="70"/>
+      <c r="C33" s="55" t="str">
         <f>'SAM_temporary 2022'!B68</f>
         <v>c-prof</v>
       </c>
-      <c r="D33" s="87">
+      <c r="D33" s="56">
         <f t="shared" si="12"/>
         <v>0.57280059867404887</v>
       </c>
-      <c r="E33" s="87">
+      <c r="E33" s="56">
         <f t="shared" si="12"/>
         <v>0.79267401051342712</v>
       </c>
-      <c r="F33" s="87">
+      <c r="F33" s="56">
         <f t="shared" si="12"/>
         <v>0.87102377691411426</v>
       </c>
-      <c r="G33" s="87">
+      <c r="G33" s="56">
         <f t="shared" si="12"/>
         <v>1.1220247817681148</v>
       </c>
-      <c r="H33" s="87">
+      <c r="H33" s="56">
         <f t="shared" si="12"/>
         <v>1.8653347749078451</v>
       </c>
-      <c r="I33" s="87">
+      <c r="I33" s="56">
         <f t="shared" si="12"/>
         <v>0.87164220139521043</v>
       </c>
-      <c r="J33" s="87">
+      <c r="J33" s="56">
         <f t="shared" si="12"/>
         <v>1.7554793798450306</v>
       </c>
-      <c r="K33" s="87">
+      <c r="K33" s="56">
         <f t="shared" si="12"/>
         <v>2.5561057213240974</v>
       </c>
-      <c r="L33" s="87">
+      <c r="L33" s="56">
         <f t="shared" si="12"/>
         <v>3.6339307331506037</v>
       </c>
-      <c r="M33" s="87">
+      <c r="M33" s="56">
         <f t="shared" si="12"/>
         <v>7.2238674210303078</v>
       </c>
-      <c r="O33" s="77">
+      <c r="O33" s="46">
         <f t="shared" si="2"/>
         <v>21.264883399522802</v>
       </c>
-      <c r="P33" s="76">
+      <c r="P33" s="45">
         <f>SUM('SAM_temporary 2022'!CF68)</f>
         <v>21.264883399522798</v>
       </c>
-      <c r="Q33" s="77">
+      <c r="Q33" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="55"/>
-      <c r="C34" s="86" t="str">
+      <c r="B34" s="70"/>
+      <c r="C34" s="55" t="str">
         <f>'SAM_temporary 2022'!B69</f>
         <v>c-supp</v>
       </c>
-      <c r="D34" s="87">
+      <c r="D34" s="56">
         <f t="shared" si="12"/>
         <v>11.476354644816578</v>
       </c>
-      <c r="E34" s="87">
+      <c r="E34" s="56">
         <f t="shared" si="12"/>
         <v>15.881631554574877</v>
       </c>
-      <c r="F34" s="87">
+      <c r="F34" s="56">
         <f t="shared" si="12"/>
         <v>17.451409427772408</v>
       </c>
-      <c r="G34" s="87">
+      <c r="G34" s="56">
         <f t="shared" si="12"/>
         <v>22.480343675707825</v>
       </c>
-      <c r="H34" s="87">
+      <c r="H34" s="56">
         <f t="shared" si="12"/>
         <v>37.372941749198986</v>
       </c>
-      <c r="I34" s="87">
+      <c r="I34" s="56">
         <f t="shared" si="12"/>
         <v>17.463799880370615</v>
       </c>
-      <c r="J34" s="87">
+      <c r="J34" s="56">
         <f t="shared" si="12"/>
         <v>35.171932399163872</v>
       </c>
-      <c r="K34" s="87">
+      <c r="K34" s="56">
         <f t="shared" si="12"/>
         <v>51.212892995338748</v>
       </c>
-      <c r="L34" s="87">
+      <c r="L34" s="56">
         <f t="shared" si="12"/>
         <v>72.80767154376943</v>
       </c>
-      <c r="M34" s="87">
+      <c r="M34" s="56">
         <f t="shared" si="12"/>
         <v>144.73389975986478</v>
       </c>
-      <c r="O34" s="77">
+      <c r="O34" s="46">
         <f t="shared" si="2"/>
         <v>426.05287763057811</v>
       </c>
-      <c r="P34" s="76">
+      <c r="P34" s="45">
         <f>SUM('SAM_temporary 2022'!CF69)</f>
         <v>426.05287763057811</v>
       </c>
-      <c r="Q34" s="77">
+      <c r="Q34" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="55"/>
-      <c r="C35" s="86" t="str">
+      <c r="B35" s="70"/>
+      <c r="C35" s="55" t="str">
         <f>'SAM_temporary 2022'!B70</f>
         <v>c-admi</v>
       </c>
-      <c r="D35" s="87">
+      <c r="D35" s="56">
         <f t="shared" si="12"/>
         <v>24.498375916091096</v>
       </c>
-      <c r="E35" s="87">
+      <c r="E35" s="56">
         <f t="shared" si="12"/>
         <v>33.902244399580248</v>
       </c>
-      <c r="F35" s="87">
+      <c r="F35" s="56">
         <f t="shared" si="12"/>
         <v>37.253222095248141</v>
       </c>
-      <c r="G35" s="87">
+      <c r="G35" s="56">
         <f t="shared" si="12"/>
         <v>47.988401119963257</v>
       </c>
-      <c r="H35" s="87">
+      <c r="H35" s="56">
         <f t="shared" si="12"/>
         <v>79.77937284079853</v>
       </c>
-      <c r="I35" s="87">
+      <c r="I35" s="56">
         <f t="shared" si="12"/>
         <v>37.279671780267115</v>
       </c>
-      <c r="J35" s="87">
+      <c r="J35" s="56">
         <f t="shared" si="12"/>
         <v>75.080916221008948</v>
       </c>
-      <c r="K35" s="87">
+      <c r="K35" s="56">
         <f t="shared" si="12"/>
         <v>109.32327757203161</v>
       </c>
-      <c r="L35" s="87">
+      <c r="L35" s="56">
         <f t="shared" si="12"/>
         <v>155.42127811989201</v>
       </c>
-      <c r="M35" s="87">
+      <c r="M35" s="56">
         <f t="shared" si="12"/>
         <v>308.96095440205738</v>
       </c>
-      <c r="O35" s="77">
+      <c r="O35" s="46">
         <f t="shared" si="2"/>
         <v>909.48771446693843</v>
       </c>
-      <c r="P35" s="76">
+      <c r="P35" s="45">
         <f>SUM('SAM_temporary 2022'!CF70)</f>
         <v>909.48771446693831</v>
       </c>
-      <c r="Q35" s="77">
+      <c r="Q35" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="55"/>
-      <c r="C36" s="83" t="str">
+      <c r="B36" s="70"/>
+      <c r="C36" s="52" t="str">
         <f>'SAM_temporary 2022'!B71</f>
         <v>c-educ</v>
       </c>
-      <c r="D36" s="87">
+      <c r="D36" s="56">
         <f>$P36*D$51/SUM($D$51:$M$51)</f>
         <v>14.014438152935831</v>
       </c>
-      <c r="E36" s="87">
+      <c r="E36" s="56">
         <f t="shared" ref="E36:M36" si="13">$P36*E$51/SUM($D$51:$M$51)</f>
         <v>24.925533621632884</v>
       </c>
-      <c r="F36" s="87">
+      <c r="F36" s="56">
         <f t="shared" si="13"/>
         <v>46.254172147529694</v>
       </c>
-      <c r="G36" s="87">
+      <c r="G36" s="56">
         <f t="shared" si="13"/>
         <v>85.096518440256546</v>
       </c>
-      <c r="H36" s="87">
+      <c r="H36" s="56">
         <f t="shared" si="13"/>
         <v>101.5654061542761</v>
       </c>
-      <c r="I36" s="87">
+      <c r="I36" s="56">
         <f t="shared" si="13"/>
         <v>50.401258941987642</v>
       </c>
-      <c r="J36" s="87">
+      <c r="J36" s="56">
         <f t="shared" si="13"/>
         <v>71.906538675328875</v>
       </c>
-      <c r="K36" s="87">
+      <c r="K36" s="56">
         <f t="shared" si="13"/>
         <v>154.2049972003131</v>
       </c>
-      <c r="L36" s="87">
+      <c r="L36" s="56">
         <f t="shared" si="13"/>
         <v>398.56891691688702</v>
       </c>
-      <c r="M36" s="87">
+      <c r="M36" s="56">
         <f t="shared" si="13"/>
         <v>812.8046911038366</v>
       </c>
-      <c r="O36" s="77">
+      <c r="O36" s="46">
         <f t="shared" si="2"/>
         <v>1759.7424713549844</v>
       </c>
-      <c r="P36" s="76">
+      <c r="P36" s="45">
         <f>SUM('SAM_temporary 2022'!CF71)</f>
         <v>1759.7424713549842</v>
       </c>
-      <c r="Q36" s="77">
+      <c r="Q36" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="55" t="s">
-        <v>461</v>
-      </c>
-      <c r="C37" s="84" t="s">
+      <c r="B37" s="70" t="s">
+        <v>460</v>
+      </c>
+      <c r="C37" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="87">
+      <c r="D37" s="56">
         <f>$P37*D$52/SUM($D$52:$M$52)</f>
         <v>53.130674804497744</v>
       </c>
-      <c r="E37" s="87">
+      <c r="E37" s="56">
         <f t="shared" ref="E37:M37" si="14">$P37*E$52/SUM($D$52:$M$52)</f>
         <v>79.520484502459908</v>
       </c>
-      <c r="F37" s="87">
+      <c r="F37" s="56">
         <f t="shared" si="14"/>
         <v>113.11876928217426</v>
       </c>
-      <c r="G37" s="87">
+      <c r="G37" s="56">
         <f t="shared" si="14"/>
         <v>124.578614070282</v>
       </c>
-      <c r="H37" s="87">
+      <c r="H37" s="56">
         <f t="shared" si="14"/>
         <v>171.60294861649405</v>
       </c>
-      <c r="I37" s="87">
+      <c r="I37" s="56">
         <f t="shared" si="14"/>
         <v>69.347046691384364</v>
       </c>
-      <c r="J37" s="87">
+      <c r="J37" s="56">
         <f t="shared" si="14"/>
         <v>107.62797594194389</v>
       </c>
-      <c r="K37" s="87">
+      <c r="K37" s="56">
         <f t="shared" si="14"/>
         <v>157.93103960350959</v>
       </c>
-      <c r="L37" s="87">
+      <c r="L37" s="56">
         <f t="shared" si="14"/>
         <v>222.79226001368724</v>
       </c>
-      <c r="M37" s="87">
+      <c r="M37" s="56">
         <f t="shared" si="14"/>
         <v>319.67862638300875</v>
       </c>
-      <c r="O37" s="77">
+      <c r="O37" s="46">
         <f t="shared" si="2"/>
         <v>1419.3284399094418</v>
       </c>
-      <c r="P37" s="76">
+      <c r="P37" s="45">
         <f>SUM('SAM_temporary 2022'!CF72)</f>
         <v>1419.3284399094418</v>
       </c>
-      <c r="Q37" s="77">
+      <c r="Q37" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="55" t="s">
-        <v>462</v>
-      </c>
-      <c r="C38" s="86" t="s">
+      <c r="B38" s="70" t="s">
+        <v>461</v>
+      </c>
+      <c r="C38" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="87">
+      <c r="D38" s="56">
         <f t="shared" ref="D38:M41" si="15">$P38*D$53/SUM($D$53:$M$53)</f>
         <v>14.164372913112864</v>
       </c>
-      <c r="E38" s="87">
+      <c r="E38" s="56">
         <f t="shared" si="15"/>
         <v>19.601463946503394</v>
       </c>
-      <c r="F38" s="87">
+      <c r="F38" s="56">
         <f t="shared" si="15"/>
         <v>21.538918815656089</v>
       </c>
-      <c r="G38" s="87">
+      <c r="G38" s="56">
         <f t="shared" si="15"/>
         <v>27.745741648153221</v>
       </c>
-      <c r="H38" s="87">
+      <c r="H38" s="56">
         <f t="shared" si="15"/>
         <v>46.126518409292295</v>
       </c>
-      <c r="I38" s="87">
+      <c r="I38" s="56">
         <f t="shared" si="15"/>
         <v>21.554211388654654</v>
       </c>
-      <c r="J38" s="87">
+      <c r="J38" s="56">
         <f t="shared" si="15"/>
         <v>43.409983570137037</v>
       </c>
-      <c r="K38" s="87">
+      <c r="K38" s="56">
         <f t="shared" si="15"/>
         <v>63.208094974039319</v>
       </c>
-      <c r="L38" s="87">
+      <c r="L38" s="56">
         <f t="shared" si="15"/>
         <v>89.860852387231915</v>
       </c>
-      <c r="M38" s="87">
+      <c r="M38" s="56">
         <f t="shared" si="15"/>
         <v>178.63380775652098</v>
       </c>
-      <c r="O38" s="77">
+      <c r="O38" s="46">
         <f t="shared" si="2"/>
         <v>525.84396580930184</v>
       </c>
-      <c r="P38" s="76">
+      <c r="P38" s="45">
         <f>SUM('SAM_temporary 2022'!CF73)</f>
         <v>525.84396580930172</v>
       </c>
-      <c r="Q38" s="77">
+      <c r="Q38" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B39" s="55" t="s">
-        <v>463</v>
-      </c>
-      <c r="C39" s="86" t="s">
+      <c r="B39" s="70" t="s">
+        <v>462</v>
+      </c>
+      <c r="C39" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="87">
+      <c r="D39" s="56">
         <f t="shared" si="15"/>
         <v>43.359323086658904</v>
       </c>
-      <c r="E39" s="87">
+      <c r="E39" s="56">
         <f t="shared" si="15"/>
         <v>60.003094626315885</v>
       </c>
-      <c r="F39" s="87">
+      <c r="F39" s="56">
         <f t="shared" si="15"/>
         <v>65.933941840853834</v>
       </c>
-      <c r="G39" s="87">
+      <c r="G39" s="56">
         <f t="shared" si="15"/>
         <v>84.93398075445441</v>
       </c>
-      <c r="H39" s="87">
+      <c r="H39" s="56">
         <f t="shared" si="15"/>
         <v>141.20036424059995</v>
       </c>
-      <c r="I39" s="87">
+      <c r="I39" s="56">
         <f t="shared" si="15"/>
         <v>65.98075475784907</v>
       </c>
-      <c r="J39" s="87">
+      <c r="J39" s="56">
         <f t="shared" si="15"/>
         <v>132.88463346383858</v>
       </c>
-      <c r="K39" s="87">
+      <c r="K39" s="56">
         <f t="shared" si="15"/>
         <v>193.48969618940123</v>
       </c>
-      <c r="L39" s="87">
+      <c r="L39" s="56">
         <f t="shared" si="15"/>
         <v>275.07788416764248</v>
       </c>
-      <c r="M39" s="87">
+      <c r="M39" s="56">
         <f t="shared" si="15"/>
         <v>546.8255483124608</v>
       </c>
-      <c r="O39" s="77">
+      <c r="O39" s="46">
         <f t="shared" si="2"/>
         <v>1609.6892214400752</v>
       </c>
-      <c r="P39" s="76">
+      <c r="P39" s="45">
         <f>SUM('SAM_temporary 2022'!CF74)</f>
         <v>1609.689221440075</v>
       </c>
-      <c r="Q39" s="77">
+      <c r="Q39" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B40" s="55" t="s">
-        <v>464</v>
-      </c>
-      <c r="C40" s="86" t="s">
+      <c r="B40" s="70" t="s">
+        <v>463</v>
+      </c>
+      <c r="C40" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="87">
+      <c r="D40" s="56">
         <f>$P40*D$53/SUM($D$53:$M$53)</f>
         <v>18.287810067564759</v>
       </c>
-      <c r="E40" s="87">
+      <c r="E40" s="56">
         <f t="shared" si="15"/>
         <v>25.307710542414192</v>
       </c>
-      <c r="F40" s="87">
+      <c r="F40" s="56">
         <f t="shared" si="15"/>
         <v>27.809184266587433</v>
       </c>
-      <c r="G40" s="87">
+      <c r="G40" s="56">
         <f t="shared" si="15"/>
         <v>35.822895694549707</v>
       </c>
-      <c r="H40" s="87">
+      <c r="H40" s="56">
         <f t="shared" si="15"/>
         <v>59.554560792891571</v>
       </c>
-      <c r="I40" s="87">
+      <c r="I40" s="56">
         <f t="shared" si="15"/>
         <v>27.828928710775514</v>
       </c>
-      <c r="J40" s="87">
+      <c r="J40" s="56">
         <f t="shared" si="15"/>
         <v>56.047206567954269</v>
       </c>
-      <c r="K40" s="87">
+      <c r="K40" s="56">
         <f t="shared" si="15"/>
         <v>81.608811255435157</v>
       </c>
-      <c r="L40" s="87">
+      <c r="L40" s="56">
         <f t="shared" si="15"/>
         <v>116.02054048194461</v>
       </c>
-      <c r="M40" s="87">
+      <c r="M40" s="56">
         <f t="shared" si="15"/>
         <v>230.63648266933353</v>
       </c>
-      <c r="O40" s="77">
+      <c r="O40" s="46">
         <f t="shared" si="2"/>
         <v>678.92413104945081</v>
       </c>
-      <c r="P40" s="76">
+      <c r="P40" s="45">
         <f>SUM('SAM_temporary 2022'!CF75)</f>
         <v>678.92413104945069</v>
       </c>
-      <c r="Q40" s="77">
+      <c r="Q40" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41" s="55" t="s">
-        <v>465</v>
-      </c>
-      <c r="C41" s="86" t="s">
+      <c r="B41" s="70" t="s">
+        <v>464</v>
+      </c>
+      <c r="C41" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="87">
+      <c r="D41" s="56">
         <f>$P41*D$53/SUM($D$53:$M$53)</f>
         <v>1.9221873149172237</v>
       </c>
-      <c r="E41" s="87">
+      <c r="E41" s="56">
         <f t="shared" si="15"/>
         <v>2.6600320100931181</v>
       </c>
-      <c r="F41" s="87">
+      <c r="F41" s="56">
         <f t="shared" si="15"/>
         <v>2.9229558398704487</v>
       </c>
-      <c r="G41" s="87">
+      <c r="G41" s="56">
         <f t="shared" si="15"/>
         <v>3.765257591437551</v>
       </c>
-      <c r="H41" s="87">
+      <c r="H41" s="56">
         <f t="shared" si="15"/>
         <v>6.2596352914117146</v>
       </c>
-      <c r="I41" s="87">
+      <c r="I41" s="56">
         <f t="shared" si="15"/>
         <v>2.9250311304611869</v>
       </c>
-      <c r="J41" s="87">
+      <c r="J41" s="56">
         <f t="shared" si="15"/>
         <v>5.8909858043934165</v>
       </c>
-      <c r="K41" s="87">
+      <c r="K41" s="56">
         <f t="shared" si="15"/>
         <v>8.5777040116405896</v>
       </c>
-      <c r="L41" s="87">
+      <c r="L41" s="56">
         <f t="shared" si="15"/>
         <v>12.194637321817453</v>
       </c>
-      <c r="M41" s="87">
+      <c r="M41" s="56">
         <f t="shared" si="15"/>
         <v>24.241640727142201</v>
       </c>
-      <c r="O41" s="77">
+      <c r="O41" s="46">
         <f t="shared" si="2"/>
         <v>71.360067043184898</v>
       </c>
-      <c r="P41" s="76">
+      <c r="P41" s="45">
         <f>SUM('SAM_temporary 2022'!CF76)</f>
         <v>71.360067043184898</v>
       </c>
-      <c r="Q41" s="77">
+      <c r="Q41" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C45" s="74" t="s">
+      <c r="C45" s="43" t="s">
+        <v>534</v>
+      </c>
+      <c r="D45" s="54" t="s">
         <v>535</v>
       </c>
-      <c r="D45" s="85" t="s">
+      <c r="E45" s="54" t="s">
         <v>536</v>
       </c>
-      <c r="E45" s="85" t="s">
+      <c r="F45" s="54" t="s">
         <v>537</v>
       </c>
-      <c r="F45" s="85" t="s">
+      <c r="G45" s="54" t="s">
         <v>538</v>
       </c>
-      <c r="G45" s="85" t="s">
+      <c r="H45" s="54" t="s">
         <v>539</v>
       </c>
-      <c r="H45" s="85" t="s">
+      <c r="I45" s="54" t="s">
         <v>540</v>
       </c>
-      <c r="I45" s="85" t="s">
+      <c r="J45" s="54" t="s">
         <v>541</v>
       </c>
-      <c r="J45" s="85" t="s">
+      <c r="K45" s="54" t="s">
         <v>542</v>
       </c>
-      <c r="K45" s="85" t="s">
+      <c r="L45" s="54" t="s">
         <v>543</v>
       </c>
-      <c r="L45" s="85" t="s">
+      <c r="M45" s="54" t="s">
         <v>544</v>
       </c>
-      <c r="M45" s="85" t="s">
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C46" s="47" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C46" s="78" t="s">
+      <c r="D46" s="44">
+        <v>68843918.133846998</v>
+      </c>
+      <c r="E46" s="44">
+        <v>92101443.873719603</v>
+      </c>
+      <c r="F46" s="44">
+        <v>114732969.81806301</v>
+      </c>
+      <c r="G46" s="44">
+        <v>140154927.368352</v>
+      </c>
+      <c r="H46" s="44">
+        <v>212898293.25625399</v>
+      </c>
+      <c r="I46" s="44">
+        <v>82134382.8683521</v>
+      </c>
+      <c r="J46" s="44">
+        <v>162025662.69608799</v>
+      </c>
+      <c r="K46" s="44">
+        <v>232147369.35582399</v>
+      </c>
+      <c r="L46" s="44">
+        <v>300083242.43939602</v>
+      </c>
+      <c r="M46" s="44">
+        <v>447849633.37191498</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C47" s="48" t="s">
         <v>546</v>
       </c>
-      <c r="D46" s="75">
-        <v>68843918.133846998</v>
-      </c>
-      <c r="E46" s="75">
-        <v>92101443.873719603</v>
-      </c>
-      <c r="F46" s="75">
-        <v>114732969.81806301</v>
-      </c>
-      <c r="G46" s="75">
-        <v>140154927.368352</v>
-      </c>
-      <c r="H46" s="75">
-        <v>212898293.25625399</v>
-      </c>
-      <c r="I46" s="75">
-        <v>82134382.8683521</v>
-      </c>
-      <c r="J46" s="75">
-        <v>162025662.69608799</v>
-      </c>
-      <c r="K46" s="75">
-        <v>232147369.35582399</v>
-      </c>
-      <c r="L46" s="75">
-        <v>300083242.43939602</v>
-      </c>
-      <c r="M46" s="75">
-        <v>447849633.37191498</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C47" s="79" t="s">
+      <c r="D47" s="44">
+        <v>4789613.9068553904</v>
+      </c>
+      <c r="E47" s="44">
+        <v>8786743.9996623993</v>
+      </c>
+      <c r="F47" s="44">
+        <v>10341676.734338099</v>
+      </c>
+      <c r="G47" s="44">
+        <v>12176182.035364799</v>
+      </c>
+      <c r="H47" s="44">
+        <v>16580742.9078172</v>
+      </c>
+      <c r="I47" s="44">
+        <v>6120525.5822111797</v>
+      </c>
+      <c r="J47" s="44">
+        <v>13716095.208855901</v>
+      </c>
+      <c r="K47" s="44">
+        <v>22381604.765549298</v>
+      </c>
+      <c r="L47" s="44">
+        <v>27941269.7310596</v>
+      </c>
+      <c r="M47" s="44">
+        <v>49081998.226424403</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C48" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="D47" s="75">
-        <v>4789613.9068553904</v>
-      </c>
-      <c r="E47" s="75">
-        <v>8786743.9996623993</v>
-      </c>
-      <c r="F47" s="75">
-        <v>10341676.734338099</v>
-      </c>
-      <c r="G47" s="75">
-        <v>12176182.035364799</v>
-      </c>
-      <c r="H47" s="75">
-        <v>16580742.9078172</v>
-      </c>
-      <c r="I47" s="75">
-        <v>6120525.5822111797</v>
-      </c>
-      <c r="J47" s="75">
-        <v>13716095.208855901</v>
-      </c>
-      <c r="K47" s="75">
-        <v>22381604.765549298</v>
-      </c>
-      <c r="L47" s="75">
-        <v>27941269.7310596</v>
-      </c>
-      <c r="M47" s="75">
-        <v>49081998.226424403</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C48" s="80" t="s">
+      <c r="D48" s="44">
+        <v>2672550.8065282502</v>
+      </c>
+      <c r="E48" s="44">
+        <v>6101408.1047333097</v>
+      </c>
+      <c r="F48" s="44">
+        <v>7588320.9217368597</v>
+      </c>
+      <c r="G48" s="44">
+        <v>11234419.009140801</v>
+      </c>
+      <c r="H48" s="44">
+        <v>24256862.677210599</v>
+      </c>
+      <c r="I48" s="44">
+        <v>4542039.0302872099</v>
+      </c>
+      <c r="J48" s="44">
+        <v>10120601.7385346</v>
+      </c>
+      <c r="K48" s="44">
+        <v>14530944.2200789</v>
+      </c>
+      <c r="L48" s="44">
+        <v>18683180.5759551</v>
+      </c>
+      <c r="M48" s="44">
+        <v>52065953.707276598</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C49" s="50" t="s">
         <v>548</v>
       </c>
-      <c r="D48" s="75">
-        <v>2672550.8065282502</v>
-      </c>
-      <c r="E48" s="75">
-        <v>6101408.1047333097</v>
-      </c>
-      <c r="F48" s="75">
-        <v>7588320.9217368597</v>
-      </c>
-      <c r="G48" s="75">
-        <v>11234419.009140801</v>
-      </c>
-      <c r="H48" s="75">
-        <v>24256862.677210599</v>
-      </c>
-      <c r="I48" s="75">
-        <v>4542039.0302872099</v>
-      </c>
-      <c r="J48" s="75">
-        <v>10120601.7385346</v>
-      </c>
-      <c r="K48" s="75">
-        <v>14530944.2200789</v>
-      </c>
-      <c r="L48" s="75">
-        <v>18683180.5759551</v>
-      </c>
-      <c r="M48" s="75">
-        <v>52065953.707276598</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C49" s="81" t="s">
+      <c r="D49" s="44">
+        <v>16919650.8320802</v>
+      </c>
+      <c r="E49" s="44">
+        <v>21457726.361429501</v>
+      </c>
+      <c r="F49" s="44">
+        <v>24568331.2534004</v>
+      </c>
+      <c r="G49" s="44">
+        <v>32824161.4539246</v>
+      </c>
+      <c r="H49" s="44">
+        <v>54436790.344432399</v>
+      </c>
+      <c r="I49" s="44">
+        <v>35728143.100414798</v>
+      </c>
+      <c r="J49" s="44">
+        <v>58240532.87269</v>
+      </c>
+      <c r="K49" s="44">
+        <v>70020424.255917698</v>
+      </c>
+      <c r="L49" s="44">
+        <v>86348500.562632903</v>
+      </c>
+      <c r="M49" s="44">
+        <v>121818330.661341</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C50" s="51" t="s">
         <v>549</v>
       </c>
-      <c r="D49" s="75">
-        <v>16919650.8320802</v>
-      </c>
-      <c r="E49" s="75">
-        <v>21457726.361429501</v>
-      </c>
-      <c r="F49" s="75">
-        <v>24568331.2534004</v>
-      </c>
-      <c r="G49" s="75">
-        <v>32824161.4539246</v>
-      </c>
-      <c r="H49" s="75">
-        <v>54436790.344432399</v>
-      </c>
-      <c r="I49" s="75">
-        <v>35728143.100414798</v>
-      </c>
-      <c r="J49" s="75">
-        <v>58240532.87269</v>
-      </c>
-      <c r="K49" s="75">
-        <v>70020424.255917698</v>
-      </c>
-      <c r="L49" s="75">
-        <v>86348500.562632903</v>
-      </c>
-      <c r="M49" s="75">
-        <v>121818330.661341</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C50" s="82" t="s">
+      <c r="D50" s="44">
+        <v>8770562.7382277194</v>
+      </c>
+      <c r="E50" s="44">
+        <v>18157346.3050768</v>
+      </c>
+      <c r="F50" s="44">
+        <v>27680509.729559001</v>
+      </c>
+      <c r="G50" s="44">
+        <v>46161179.817291804</v>
+      </c>
+      <c r="H50" s="44">
+        <v>76955059.944503799</v>
+      </c>
+      <c r="I50" s="44">
+        <v>10189609.141310399</v>
+      </c>
+      <c r="J50" s="44">
+        <v>27631307.886992399</v>
+      </c>
+      <c r="K50" s="44">
+        <v>55135955.758703299</v>
+      </c>
+      <c r="L50" s="44">
+        <v>92389813.011659101</v>
+      </c>
+      <c r="M50" s="44">
+        <v>162698527.16669801</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C51" s="52" t="s">
         <v>550</v>
       </c>
-      <c r="D50" s="75">
-        <v>8770562.7382277194</v>
-      </c>
-      <c r="E50" s="75">
-        <v>18157346.3050768</v>
-      </c>
-      <c r="F50" s="75">
-        <v>27680509.729559001</v>
-      </c>
-      <c r="G50" s="75">
-        <v>46161179.817291804</v>
-      </c>
-      <c r="H50" s="75">
-        <v>76955059.944503799</v>
-      </c>
-      <c r="I50" s="75">
-        <v>10189609.141310399</v>
-      </c>
-      <c r="J50" s="75">
-        <v>27631307.886992399</v>
-      </c>
-      <c r="K50" s="75">
-        <v>55135955.758703299</v>
-      </c>
-      <c r="L50" s="75">
-        <v>92389813.011659101</v>
-      </c>
-      <c r="M50" s="75">
-        <v>162698527.16669801</v>
-      </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C51" s="83" t="s">
+      <c r="D51" s="44">
+        <v>830409.15981292701</v>
+      </c>
+      <c r="E51" s="44">
+        <v>1476933.37447802</v>
+      </c>
+      <c r="F51" s="44">
+        <v>2740736.9322776799</v>
+      </c>
+      <c r="G51" s="44">
+        <v>5042294.7826970397</v>
+      </c>
+      <c r="H51" s="44">
+        <v>6018139.4837411204</v>
+      </c>
+      <c r="I51" s="44">
+        <v>2986467.7152799</v>
+      </c>
+      <c r="J51" s="44">
+        <v>4260737.9414583798</v>
+      </c>
+      <c r="K51" s="44">
+        <v>9137236.9528236408</v>
+      </c>
+      <c r="L51" s="44">
+        <v>23616735.527507801</v>
+      </c>
+      <c r="M51" s="44">
+        <v>48161792.379107803</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C52" s="53" t="s">
         <v>551</v>
       </c>
-      <c r="D51" s="75">
-        <v>830409.15981292701</v>
-      </c>
-      <c r="E51" s="75">
-        <v>1476933.37447802</v>
-      </c>
-      <c r="F51" s="75">
-        <v>2740736.9322776799</v>
-      </c>
-      <c r="G51" s="75">
-        <v>5042294.7826970397</v>
-      </c>
-      <c r="H51" s="75">
-        <v>6018139.4837411204</v>
-      </c>
-      <c r="I51" s="75">
-        <v>2986467.7152799</v>
-      </c>
-      <c r="J51" s="75">
-        <v>4260737.9414583798</v>
-      </c>
-      <c r="K51" s="75">
-        <v>9137236.9528236408</v>
-      </c>
-      <c r="L51" s="75">
-        <v>23616735.527507801</v>
-      </c>
-      <c r="M51" s="75">
-        <v>48161792.379107803</v>
-      </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C52" s="84" t="s">
+      <c r="D52" s="44">
+        <v>19913650.6855576</v>
+      </c>
+      <c r="E52" s="44">
+        <v>29804687.3403202</v>
+      </c>
+      <c r="F52" s="44">
+        <v>42397497.599159203</v>
+      </c>
+      <c r="G52" s="44">
+        <v>46692706.475402698</v>
+      </c>
+      <c r="H52" s="44">
+        <v>64317669.367739096</v>
+      </c>
+      <c r="I52" s="44">
+        <v>25991630.427595802</v>
+      </c>
+      <c r="J52" s="44">
+        <v>40339519.962581597</v>
+      </c>
+      <c r="K52" s="44">
+        <v>59193367.421808399</v>
+      </c>
+      <c r="L52" s="44">
+        <v>83503687.0448879</v>
+      </c>
+      <c r="M52" s="44">
+        <v>119817196.390873</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C53" s="55" t="s">
         <v>552</v>
       </c>
-      <c r="D52" s="75">
-        <v>19913650.6855576</v>
-      </c>
-      <c r="E52" s="75">
-        <v>29804687.3403202</v>
-      </c>
-      <c r="F52" s="75">
-        <v>42397497.599159203</v>
-      </c>
-      <c r="G52" s="75">
-        <v>46692706.475402698</v>
-      </c>
-      <c r="H52" s="75">
-        <v>64317669.367739096</v>
-      </c>
-      <c r="I52" s="75">
-        <v>25991630.427595802</v>
-      </c>
-      <c r="J52" s="75">
-        <v>40339519.962581597</v>
-      </c>
-      <c r="K52" s="75">
-        <v>59193367.421808399</v>
-      </c>
-      <c r="L52" s="75">
-        <v>83503687.0448879</v>
-      </c>
-      <c r="M52" s="75">
-        <v>119817196.390873</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C53" s="86" t="s">
+      <c r="D53" s="44">
+        <v>15539953.534695501</v>
+      </c>
+      <c r="E53" s="44">
+        <v>21505070.560425501</v>
+      </c>
+      <c r="F53" s="44">
+        <v>23630682.391382702</v>
+      </c>
+      <c r="G53" s="44">
+        <v>30440284.129967202</v>
+      </c>
+      <c r="H53" s="44">
+        <v>50606119.818695799</v>
+      </c>
+      <c r="I53" s="44">
+        <v>23647460.110755201</v>
+      </c>
+      <c r="J53" s="44">
+        <v>47625767.251391299</v>
+      </c>
+      <c r="K53" s="44">
+        <v>69346582.791805699</v>
+      </c>
+      <c r="L53" s="44">
+        <v>98587736.9405424</v>
+      </c>
+      <c r="M53" s="44">
+        <v>195981925.16466299</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C54" s="43" t="s">
         <v>553</v>
       </c>
-      <c r="D53" s="75">
-        <v>15539953.534695501</v>
-      </c>
-      <c r="E53" s="75">
-        <v>21505070.560425501</v>
-      </c>
-      <c r="F53" s="75">
-        <v>23630682.391382702</v>
-      </c>
-      <c r="G53" s="75">
-        <v>30440284.129967202</v>
-      </c>
-      <c r="H53" s="75">
-        <v>50606119.818695799</v>
-      </c>
-      <c r="I53" s="75">
-        <v>23647460.110755201</v>
-      </c>
-      <c r="J53" s="75">
-        <v>47625767.251391299</v>
-      </c>
-      <c r="K53" s="75">
-        <v>69346582.791805699</v>
-      </c>
-      <c r="L53" s="75">
-        <v>98587736.9405424</v>
-      </c>
-      <c r="M53" s="75">
-        <v>195981925.16466299</v>
-      </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C54" s="88" t="s">
+      <c r="D54" s="44">
+        <v>10909080.961079899</v>
+      </c>
+      <c r="E54" s="44">
+        <v>17003864.6994012</v>
+      </c>
+      <c r="F54" s="44">
+        <v>27236285.202862199</v>
+      </c>
+      <c r="G54" s="44">
+        <v>37615872.171932198</v>
+      </c>
+      <c r="H54" s="44">
+        <v>62529856.774473198</v>
+      </c>
+      <c r="I54" s="44">
+        <v>814132.81174723303</v>
+      </c>
+      <c r="J54" s="44">
+        <v>1981533.15626208</v>
+      </c>
+      <c r="K54" s="44">
+        <v>2248767.6574796</v>
+      </c>
+      <c r="L54" s="44">
+        <v>3522743.8459657002</v>
+      </c>
+      <c r="M54" s="44">
+        <v>11073398.787910501</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C55" s="43" t="s">
         <v>554</v>
       </c>
-      <c r="D54" s="75">
-        <v>10909080.961079899</v>
-      </c>
-      <c r="E54" s="75">
-        <v>17003864.6994012</v>
-      </c>
-      <c r="F54" s="75">
-        <v>27236285.202862199</v>
-      </c>
-      <c r="G54" s="75">
-        <v>37615872.171932198</v>
-      </c>
-      <c r="H54" s="75">
-        <v>62529856.774473198</v>
-      </c>
-      <c r="I54" s="75">
-        <v>814132.81174723303</v>
-      </c>
-      <c r="J54" s="75">
-        <v>1981533.15626208</v>
-      </c>
-      <c r="K54" s="75">
-        <v>2248767.6574796</v>
-      </c>
-      <c r="L54" s="75">
-        <v>3522743.8459657002</v>
-      </c>
-      <c r="M54" s="75">
-        <v>11073398.787910501</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C55" s="88" t="s">
+      <c r="D55" s="44">
+        <v>3879460.0555019402</v>
+      </c>
+      <c r="E55" s="44">
+        <v>12225931.0121199</v>
+      </c>
+      <c r="F55" s="44">
+        <v>10836390.514799099</v>
+      </c>
+      <c r="G55" s="44">
+        <v>18275525.8670565</v>
+      </c>
+      <c r="H55" s="44">
+        <v>29531617.530249301</v>
+      </c>
+      <c r="I55" s="44">
+        <v>2880702.2420870499</v>
+      </c>
+      <c r="J55" s="44">
+        <v>7993058.4399503097</v>
+      </c>
+      <c r="K55" s="44">
+        <v>12991892.690367401</v>
+      </c>
+      <c r="L55" s="44">
+        <v>21789446.170146901</v>
+      </c>
+      <c r="M55" s="44">
+        <v>43103595.797542602</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C56" s="57" t="s">
         <v>555</v>
       </c>
-      <c r="D55" s="75">
-        <v>3879460.0555019402</v>
-      </c>
-      <c r="E55" s="75">
-        <v>12225931.0121199</v>
-      </c>
-      <c r="F55" s="75">
-        <v>10836390.514799099</v>
-      </c>
-      <c r="G55" s="75">
-        <v>18275525.8670565</v>
-      </c>
-      <c r="H55" s="75">
-        <v>29531617.530249301</v>
-      </c>
-      <c r="I55" s="75">
-        <v>2880702.2420870499</v>
-      </c>
-      <c r="J55" s="75">
-        <v>7993058.4399503097</v>
-      </c>
-      <c r="K55" s="75">
-        <v>12991892.690367401</v>
-      </c>
-      <c r="L55" s="75">
-        <v>21789446.170146901</v>
-      </c>
-      <c r="M55" s="75">
-        <v>43103595.797542602</v>
-      </c>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C56" s="89" t="s">
+      <c r="D56" s="44">
+        <v>42706669.891552001</v>
+      </c>
+      <c r="E56" s="44">
+        <v>48285397.539618202</v>
+      </c>
+      <c r="F56" s="44">
+        <v>70756617.898084</v>
+      </c>
+      <c r="G56" s="44">
+        <v>82942359.223676696</v>
+      </c>
+      <c r="H56" s="44">
+        <v>130460992.993432</v>
+      </c>
+      <c r="I56" s="44">
+        <v>36383823.197749503</v>
+      </c>
+      <c r="J56" s="44">
+        <v>70583745.045752198</v>
+      </c>
+      <c r="K56" s="44">
+        <v>89234799.452014297</v>
+      </c>
+      <c r="L56" s="44">
+        <v>141813378.84832099</v>
+      </c>
+      <c r="M56" s="44">
+        <v>209718385.47466499</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C57" s="43" t="s">
         <v>556</v>
       </c>
-      <c r="D56" s="75">
-        <v>42706669.891552001</v>
-      </c>
-      <c r="E56" s="75">
-        <v>48285397.539618202</v>
-      </c>
-      <c r="F56" s="75">
-        <v>70756617.898084</v>
-      </c>
-      <c r="G56" s="75">
-        <v>82942359.223676696</v>
-      </c>
-      <c r="H56" s="75">
-        <v>130460992.993432</v>
-      </c>
-      <c r="I56" s="75">
-        <v>36383823.197749503</v>
-      </c>
-      <c r="J56" s="75">
-        <v>70583745.045752198</v>
-      </c>
-      <c r="K56" s="75">
-        <v>89234799.452014297</v>
-      </c>
-      <c r="L56" s="75">
-        <v>141813378.84832099</v>
-      </c>
-      <c r="M56" s="75">
-        <v>209718385.47466499</v>
-      </c>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C57" s="88" t="s">
-        <v>557</v>
-      </c>
-      <c r="D57" s="75">
+      <c r="D57" s="44">
         <v>729083.70799001097</v>
       </c>
-      <c r="E57" s="75">
+      <c r="E57" s="44">
         <v>5984751.1256574001</v>
       </c>
-      <c r="F57" s="75">
+      <c r="F57" s="44">
         <v>7710723.20002429</v>
       </c>
-      <c r="G57" s="75">
+      <c r="G57" s="44">
         <v>6507972.3814983396</v>
       </c>
-      <c r="H57" s="75">
+      <c r="H57" s="44">
         <v>40934059.819413498</v>
       </c>
-      <c r="I57" s="75">
+      <c r="I57" s="44">
         <v>3239132.2321548499</v>
       </c>
-      <c r="J57" s="75">
+      <c r="J57" s="44">
         <v>3162085.7633972201</v>
       </c>
-      <c r="K57" s="75">
+      <c r="K57" s="44">
         <v>12970413.922389301</v>
       </c>
-      <c r="L57" s="75">
+      <c r="L57" s="44">
         <v>18119939.591935501</v>
       </c>
-      <c r="M57" s="75">
+      <c r="M57" s="44">
         <v>29701546.067812599</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C59" s="89" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:B41"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C59" r:id="rId1" xr:uid="{7510F8E6-1448-4121-B723-3221277508F5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <ignoredErrors>
@@ -27962,23 +28000,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="56" t="s">
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70" t="s">
+      <c r="K2" s="72"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="N2" s="71"/>
-      <c r="O2" s="72"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="80"/>
       <c r="P2" s="34" t="s">
         <v>128</v>
       </c>
@@ -28041,7 +28079,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="81" t="s">
         <v>173</v>
       </c>
       <c r="D4" s="32" t="str">
@@ -28102,7 +28140,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="73"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="32" t="str">
         <f>'SAM_temporary 2022'!B80</f>
         <v>t-pit</v>
@@ -28161,7 +28199,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="73"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="32" t="str">
         <f>'SAM_temporary 2022'!B81</f>
         <v>t-profit</v>
@@ -28220,7 +28258,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="73"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="32" t="str">
         <f>'SAM_temporary 2022'!B82</f>
         <v>t-com_tax</v>
@@ -28279,7 +28317,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="73"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="32" t="str">
         <f>'SAM_temporary 2022'!B83</f>
         <v>t-ssb</v>
@@ -28338,7 +28376,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="70" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="32" t="str">
@@ -28399,7 +28437,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="55"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="32" t="str">
         <f>'SAM_temporary 2022'!B85</f>
         <v>g-gov</v>
@@ -28458,7 +28496,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="55"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="32" t="str">
         <f>'SAM_temporary 2022'!B86</f>
         <v>e-ent</v>
@@ -28517,7 +28555,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="70" t="s">
         <v>179</v>
       </c>
       <c r="D12" s="32" t="str">
@@ -28578,7 +28616,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="55"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="32" t="str">
         <f>'SAM_temporary 2022'!B88</f>
         <v>i-publ</v>
@@ -28637,7 +28675,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="55"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="32" t="str">
         <f>'SAM_temporary 2022'!B89</f>
         <v>i-dstk</v>
@@ -28819,32 +28857,32 @@
     </row>
     <row r="18" spans="3:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="56" t="s">
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="56" t="s">
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="W19" s="57"/>
-      <c r="X19" s="58"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="73"/>
       <c r="Y19" s="8" t="s">
         <v>128</v>
       </c>
@@ -28921,7 +28959,7 @@
       </c>
     </row>
     <row r="21" spans="3:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="82" t="s">
         <v>173</v>
       </c>
       <c r="D21" s="32" t="s">
@@ -28975,7 +29013,7 @@
       </c>
     </row>
     <row r="22" spans="3:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="63"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="32" t="s">
         <v>118</v>
       </c>
@@ -29027,7 +29065,7 @@
       </c>
     </row>
     <row r="23" spans="3:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="63"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="32" t="s">
         <v>119</v>
       </c>
@@ -29079,7 +29117,7 @@
       </c>
     </row>
     <row r="24" spans="3:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="63"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="32" t="s">
         <v>120</v>
       </c>
@@ -29131,7 +29169,7 @@
       </c>
     </row>
     <row r="25" spans="3:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="63"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="32" t="s">
         <v>121</v>
       </c>
@@ -29183,7 +29221,7 @@
       </c>
     </row>
     <row r="26" spans="3:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="84" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="38" t="s">
@@ -29213,7 +29251,7 @@
       <c r="Z26" s="40"/>
     </row>
     <row r="27" spans="3:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="65"/>
+      <c r="C27" s="85"/>
       <c r="D27" s="38" t="s">
         <v>25</v>
       </c>
@@ -29241,7 +29279,7 @@
       <c r="Z27" s="40"/>
     </row>
     <row r="28" spans="3:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="65"/>
+      <c r="C28" s="85"/>
       <c r="D28" s="38" t="s">
         <v>26</v>
       </c>
@@ -29269,7 +29307,7 @@
       <c r="Z28" s="40"/>
     </row>
     <row r="29" spans="3:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="65"/>
+      <c r="C29" s="85"/>
       <c r="D29" s="38" t="s">
         <v>27</v>
       </c>
@@ -29297,7 +29335,7 @@
       <c r="Z29" s="40"/>
     </row>
     <row r="30" spans="3:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="65"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="38" t="s">
         <v>24</v>
       </c>
@@ -29325,7 +29363,7 @@
       <c r="Z30" s="40"/>
     </row>
     <row r="31" spans="3:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="65"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="38" t="s">
         <v>28</v>
       </c>
@@ -29353,7 +29391,7 @@
       <c r="Z31" s="40"/>
     </row>
     <row r="32" spans="3:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="65"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="38" t="s">
         <v>29</v>
       </c>
@@ -29381,7 +29419,7 @@
       <c r="Z32" s="40"/>
     </row>
     <row r="33" spans="3:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="65"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="38" t="s">
         <v>30</v>
       </c>
@@ -29409,7 +29447,7 @@
       <c r="Z33" s="40"/>
     </row>
     <row r="34" spans="3:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="65"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="38" t="s">
         <v>31</v>
       </c>
@@ -29437,7 +29475,7 @@
       <c r="Z34" s="40"/>
     </row>
     <row r="35" spans="3:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="65"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="38" t="s">
         <v>32</v>
       </c>
@@ -29465,7 +29503,7 @@
       <c r="Z35" s="40"/>
     </row>
     <row r="36" spans="3:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="65"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="32" t="s">
         <v>123</v>
       </c>
@@ -29517,7 +29555,7 @@
       </c>
     </row>
     <row r="37" spans="3:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="65"/>
+      <c r="C37" s="85"/>
       <c r="D37" s="32" t="s">
         <v>124</v>
       </c>
@@ -29569,7 +29607,7 @@
       </c>
     </row>
     <row r="38" spans="3:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="86" t="s">
         <v>179</v>
       </c>
       <c r="D38" s="32" t="s">
@@ -29623,7 +29661,7 @@
       </c>
     </row>
     <row r="39" spans="3:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="67"/>
+      <c r="C39" s="87"/>
       <c r="D39" s="32" t="s">
         <v>130</v>
       </c>
@@ -29675,7 +29713,7 @@
       </c>
     </row>
     <row r="40" spans="3:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="68"/>
+      <c r="C40" s="88"/>
       <c r="D40" s="32" t="s">
         <v>127</v>
       </c>
@@ -30512,6 +30550,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C37"/>
+    <mergeCell ref="C38:C40"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="J19:U19"/>
     <mergeCell ref="E2:I2"/>
@@ -30519,11 +30562,6 @@
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C37"/>
-    <mergeCell ref="C38:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
